--- a/sequences/02_retrieval_2.xlsx
+++ b/sequences/02_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -2076,6 +2076,30 @@
       <c r="F7" t="s">
         <v>210</v>
       </c>
+      <c r="G7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M7" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -2096,6 +2120,30 @@
       <c r="F8" t="s">
         <v>210</v>
       </c>
+      <c r="G8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" t="s">
+        <v>210</v>
+      </c>
+      <c r="L8" t="s">
+        <v>210</v>
+      </c>
+      <c r="M8" t="s">
+        <v>210</v>
+      </c>
+      <c r="N8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
@@ -2336,6 +2384,30 @@
       <c r="F14" t="s">
         <v>210</v>
       </c>
+      <c r="G14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" t="s">
+        <v>210</v>
+      </c>
+      <c r="I14" t="s">
+        <v>210</v>
+      </c>
+      <c r="J14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" t="s">
+        <v>210</v>
+      </c>
+      <c r="L14" t="s">
+        <v>210</v>
+      </c>
+      <c r="M14" t="s">
+        <v>210</v>
+      </c>
+      <c r="N14" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -2356,6 +2428,30 @@
       <c r="F15" t="s">
         <v>210</v>
       </c>
+      <c r="G15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" t="s">
+        <v>210</v>
+      </c>
+      <c r="K15" t="s">
+        <v>210</v>
+      </c>
+      <c r="L15" t="s">
+        <v>210</v>
+      </c>
+      <c r="M15" t="s">
+        <v>210</v>
+      </c>
+      <c r="N15" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -2420,6 +2516,30 @@
       <c r="F17" t="s">
         <v>210</v>
       </c>
+      <c r="G17" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" t="s">
+        <v>210</v>
+      </c>
+      <c r="M17" t="s">
+        <v>210</v>
+      </c>
+      <c r="N17" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2572,6 +2692,30 @@
       <c r="F21" t="s">
         <v>210</v>
       </c>
+      <c r="G21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="s">
+        <v>210</v>
+      </c>
+      <c r="N21" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -2768,6 +2912,30 @@
       <c r="F26" t="s">
         <v>210</v>
       </c>
+      <c r="G26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" t="s">
+        <v>210</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" t="s">
+        <v>210</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
@@ -2788,6 +2956,30 @@
       <c r="F27" t="s">
         <v>210</v>
       </c>
+      <c r="G27" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" t="s">
+        <v>210</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="s">
+        <v>210</v>
+      </c>
+      <c r="N27" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2852,6 +3044,30 @@
       <c r="F29" t="s">
         <v>210</v>
       </c>
+      <c r="G29" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s">
+        <v>210</v>
+      </c>
+      <c r="L29" t="s">
+        <v>210</v>
+      </c>
+      <c r="M29" t="s">
+        <v>210</v>
+      </c>
+      <c r="N29" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
@@ -2872,6 +3088,30 @@
       <c r="F30" t="s">
         <v>210</v>
       </c>
+      <c r="G30" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" t="s">
+        <v>210</v>
+      </c>
+      <c r="I30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" t="s">
+        <v>210</v>
+      </c>
+      <c r="L30" t="s">
+        <v>210</v>
+      </c>
+      <c r="M30" t="s">
+        <v>210</v>
+      </c>
+      <c r="N30" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -3024,6 +3264,30 @@
       <c r="F34" t="s">
         <v>210</v>
       </c>
+      <c r="G34" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" t="s">
+        <v>210</v>
+      </c>
+      <c r="M34" t="s">
+        <v>210</v>
+      </c>
+      <c r="N34" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3308,6 +3572,30 @@
       <c r="F41" t="s">
         <v>210</v>
       </c>
+      <c r="G41" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" t="s">
+        <v>210</v>
+      </c>
+      <c r="J41" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" t="s">
+        <v>210</v>
+      </c>
+      <c r="L41" t="s">
+        <v>210</v>
+      </c>
+      <c r="M41" t="s">
+        <v>210</v>
+      </c>
+      <c r="N41" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
@@ -3372,6 +3660,30 @@
       <c r="F43" t="s">
         <v>210</v>
       </c>
+      <c r="G43" t="s">
+        <v>210</v>
+      </c>
+      <c r="H43" t="s">
+        <v>210</v>
+      </c>
+      <c r="I43" t="s">
+        <v>210</v>
+      </c>
+      <c r="J43" t="s">
+        <v>210</v>
+      </c>
+      <c r="K43" t="s">
+        <v>210</v>
+      </c>
+      <c r="L43" t="s">
+        <v>210</v>
+      </c>
+      <c r="M43" t="s">
+        <v>210</v>
+      </c>
+      <c r="N43" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
@@ -3480,6 +3792,30 @@
       <c r="F46" t="s">
         <v>210</v>
       </c>
+      <c r="G46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H46" t="s">
+        <v>210</v>
+      </c>
+      <c r="I46" t="s">
+        <v>210</v>
+      </c>
+      <c r="J46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K46" t="s">
+        <v>210</v>
+      </c>
+      <c r="L46" t="s">
+        <v>210</v>
+      </c>
+      <c r="M46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N46" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3500,6 +3836,30 @@
       <c r="F47" t="s">
         <v>210</v>
       </c>
+      <c r="G47" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" t="s">
+        <v>210</v>
+      </c>
+      <c r="I47" t="s">
+        <v>210</v>
+      </c>
+      <c r="J47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" t="s">
+        <v>210</v>
+      </c>
+      <c r="L47" t="s">
+        <v>210</v>
+      </c>
+      <c r="M47" t="s">
+        <v>210</v>
+      </c>
+      <c r="N47" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
@@ -3652,6 +4012,30 @@
       <c r="F51" t="s">
         <v>210</v>
       </c>
+      <c r="G51" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" t="s">
+        <v>210</v>
+      </c>
+      <c r="I51" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" t="s">
+        <v>210</v>
+      </c>
+      <c r="K51" t="s">
+        <v>210</v>
+      </c>
+      <c r="L51" t="s">
+        <v>210</v>
+      </c>
+      <c r="M51" t="s">
+        <v>210</v>
+      </c>
+      <c r="N51" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3672,6 +4056,30 @@
       <c r="F52" t="s">
         <v>210</v>
       </c>
+      <c r="G52" t="s">
+        <v>210</v>
+      </c>
+      <c r="H52" t="s">
+        <v>210</v>
+      </c>
+      <c r="I52" t="s">
+        <v>210</v>
+      </c>
+      <c r="J52" t="s">
+        <v>210</v>
+      </c>
+      <c r="K52" t="s">
+        <v>210</v>
+      </c>
+      <c r="L52" t="s">
+        <v>210</v>
+      </c>
+      <c r="M52" t="s">
+        <v>210</v>
+      </c>
+      <c r="N52" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
@@ -3824,6 +4232,30 @@
       <c r="F56" t="s">
         <v>210</v>
       </c>
+      <c r="G56" t="s">
+        <v>210</v>
+      </c>
+      <c r="H56" t="s">
+        <v>210</v>
+      </c>
+      <c r="I56" t="s">
+        <v>210</v>
+      </c>
+      <c r="J56" t="s">
+        <v>210</v>
+      </c>
+      <c r="K56" t="s">
+        <v>210</v>
+      </c>
+      <c r="L56" t="s">
+        <v>210</v>
+      </c>
+      <c r="M56" t="s">
+        <v>210</v>
+      </c>
+      <c r="N56" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3844,6 +4276,30 @@
       <c r="F57" t="s">
         <v>210</v>
       </c>
+      <c r="G57" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" t="s">
+        <v>210</v>
+      </c>
+      <c r="I57" t="s">
+        <v>210</v>
+      </c>
+      <c r="J57" t="s">
+        <v>210</v>
+      </c>
+      <c r="K57" t="s">
+        <v>210</v>
+      </c>
+      <c r="L57" t="s">
+        <v>210</v>
+      </c>
+      <c r="M57" t="s">
+        <v>210</v>
+      </c>
+      <c r="N57" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
@@ -4040,6 +4496,30 @@
       <c r="F62" t="s">
         <v>210</v>
       </c>
+      <c r="G62" t="s">
+        <v>210</v>
+      </c>
+      <c r="H62" t="s">
+        <v>210</v>
+      </c>
+      <c r="I62" t="s">
+        <v>210</v>
+      </c>
+      <c r="J62" t="s">
+        <v>210</v>
+      </c>
+      <c r="K62" t="s">
+        <v>210</v>
+      </c>
+      <c r="L62" t="s">
+        <v>210</v>
+      </c>
+      <c r="M62" t="s">
+        <v>210</v>
+      </c>
+      <c r="N62" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
@@ -4060,6 +4540,30 @@
       <c r="F63" t="s">
         <v>210</v>
       </c>
+      <c r="G63" t="s">
+        <v>210</v>
+      </c>
+      <c r="H63" t="s">
+        <v>210</v>
+      </c>
+      <c r="I63" t="s">
+        <v>210</v>
+      </c>
+      <c r="J63" t="s">
+        <v>210</v>
+      </c>
+      <c r="K63" t="s">
+        <v>210</v>
+      </c>
+      <c r="L63" t="s">
+        <v>210</v>
+      </c>
+      <c r="M63" t="s">
+        <v>210</v>
+      </c>
+      <c r="N63" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4080,6 +4584,30 @@
       <c r="F64" t="s">
         <v>210</v>
       </c>
+      <c r="G64" t="s">
+        <v>210</v>
+      </c>
+      <c r="H64" t="s">
+        <v>210</v>
+      </c>
+      <c r="I64" t="s">
+        <v>210</v>
+      </c>
+      <c r="J64" t="s">
+        <v>210</v>
+      </c>
+      <c r="K64" t="s">
+        <v>210</v>
+      </c>
+      <c r="L64" t="s">
+        <v>210</v>
+      </c>
+      <c r="M64" t="s">
+        <v>210</v>
+      </c>
+      <c r="N64" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4100,6 +4628,30 @@
       <c r="F65" t="s">
         <v>210</v>
       </c>
+      <c r="G65" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" t="s">
+        <v>210</v>
+      </c>
+      <c r="I65" t="s">
+        <v>210</v>
+      </c>
+      <c r="J65" t="s">
+        <v>210</v>
+      </c>
+      <c r="K65" t="s">
+        <v>210</v>
+      </c>
+      <c r="L65" t="s">
+        <v>210</v>
+      </c>
+      <c r="M65" t="s">
+        <v>210</v>
+      </c>
+      <c r="N65" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4164,6 +4716,30 @@
       <c r="F67" t="s">
         <v>210</v>
       </c>
+      <c r="G67" t="s">
+        <v>210</v>
+      </c>
+      <c r="H67" t="s">
+        <v>210</v>
+      </c>
+      <c r="I67" t="s">
+        <v>210</v>
+      </c>
+      <c r="J67" t="s">
+        <v>210</v>
+      </c>
+      <c r="K67" t="s">
+        <v>210</v>
+      </c>
+      <c r="L67" t="s">
+        <v>210</v>
+      </c>
+      <c r="M67" t="s">
+        <v>210</v>
+      </c>
+      <c r="N67" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4360,6 +4936,30 @@
       <c r="F72" t="s">
         <v>210</v>
       </c>
+      <c r="G72" t="s">
+        <v>210</v>
+      </c>
+      <c r="H72" t="s">
+        <v>210</v>
+      </c>
+      <c r="I72" t="s">
+        <v>210</v>
+      </c>
+      <c r="J72" t="s">
+        <v>210</v>
+      </c>
+      <c r="K72" t="s">
+        <v>210</v>
+      </c>
+      <c r="L72" t="s">
+        <v>210</v>
+      </c>
+      <c r="M72" t="s">
+        <v>210</v>
+      </c>
+      <c r="N72" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4556,6 +5156,30 @@
       <c r="F77" t="s">
         <v>210</v>
       </c>
+      <c r="G77" t="s">
+        <v>210</v>
+      </c>
+      <c r="H77" t="s">
+        <v>210</v>
+      </c>
+      <c r="I77" t="s">
+        <v>210</v>
+      </c>
+      <c r="J77" t="s">
+        <v>210</v>
+      </c>
+      <c r="K77" t="s">
+        <v>210</v>
+      </c>
+      <c r="L77" t="s">
+        <v>210</v>
+      </c>
+      <c r="M77" t="s">
+        <v>210</v>
+      </c>
+      <c r="N77" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
@@ -4840,6 +5464,30 @@
       <c r="F84" t="s">
         <v>210</v>
       </c>
+      <c r="G84" t="s">
+        <v>210</v>
+      </c>
+      <c r="H84" t="s">
+        <v>210</v>
+      </c>
+      <c r="I84" t="s">
+        <v>210</v>
+      </c>
+      <c r="J84" t="s">
+        <v>210</v>
+      </c>
+      <c r="K84" t="s">
+        <v>210</v>
+      </c>
+      <c r="L84" t="s">
+        <v>210</v>
+      </c>
+      <c r="M84" t="s">
+        <v>210</v>
+      </c>
+      <c r="N84" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -4904,6 +5552,30 @@
       <c r="F86" t="s">
         <v>210</v>
       </c>
+      <c r="G86" t="s">
+        <v>210</v>
+      </c>
+      <c r="H86" t="s">
+        <v>210</v>
+      </c>
+      <c r="I86" t="s">
+        <v>210</v>
+      </c>
+      <c r="J86" t="s">
+        <v>210</v>
+      </c>
+      <c r="K86" t="s">
+        <v>210</v>
+      </c>
+      <c r="L86" t="s">
+        <v>210</v>
+      </c>
+      <c r="M86" t="s">
+        <v>210</v>
+      </c>
+      <c r="N86" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -4968,6 +5640,30 @@
       <c r="F88" t="s">
         <v>210</v>
       </c>
+      <c r="G88" t="s">
+        <v>210</v>
+      </c>
+      <c r="H88" t="s">
+        <v>210</v>
+      </c>
+      <c r="I88" t="s">
+        <v>210</v>
+      </c>
+      <c r="J88" t="s">
+        <v>210</v>
+      </c>
+      <c r="K88" t="s">
+        <v>210</v>
+      </c>
+      <c r="L88" t="s">
+        <v>210</v>
+      </c>
+      <c r="M88" t="s">
+        <v>210</v>
+      </c>
+      <c r="N88" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -5032,6 +5728,30 @@
       <c r="F90" t="s">
         <v>210</v>
       </c>
+      <c r="G90" t="s">
+        <v>210</v>
+      </c>
+      <c r="H90" t="s">
+        <v>210</v>
+      </c>
+      <c r="I90" t="s">
+        <v>210</v>
+      </c>
+      <c r="J90" t="s">
+        <v>210</v>
+      </c>
+      <c r="K90" t="s">
+        <v>210</v>
+      </c>
+      <c r="L90" t="s">
+        <v>210</v>
+      </c>
+      <c r="M90" t="s">
+        <v>210</v>
+      </c>
+      <c r="N90" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
@@ -5096,6 +5816,30 @@
       <c r="F92" t="s">
         <v>210</v>
       </c>
+      <c r="G92" t="s">
+        <v>210</v>
+      </c>
+      <c r="H92" t="s">
+        <v>210</v>
+      </c>
+      <c r="I92" t="s">
+        <v>210</v>
+      </c>
+      <c r="J92" t="s">
+        <v>210</v>
+      </c>
+      <c r="K92" t="s">
+        <v>210</v>
+      </c>
+      <c r="L92" t="s">
+        <v>210</v>
+      </c>
+      <c r="M92" t="s">
+        <v>210</v>
+      </c>
+      <c r="N92" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
@@ -5204,6 +5948,30 @@
       <c r="F95" t="s">
         <v>210</v>
       </c>
+      <c r="G95" t="s">
+        <v>210</v>
+      </c>
+      <c r="H95" t="s">
+        <v>210</v>
+      </c>
+      <c r="I95" t="s">
+        <v>210</v>
+      </c>
+      <c r="J95" t="s">
+        <v>210</v>
+      </c>
+      <c r="K95" t="s">
+        <v>210</v>
+      </c>
+      <c r="L95" t="s">
+        <v>210</v>
+      </c>
+      <c r="M95" t="s">
+        <v>210</v>
+      </c>
+      <c r="N95" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
@@ -5356,6 +6124,30 @@
       <c r="F99" t="s">
         <v>210</v>
       </c>
+      <c r="G99" t="s">
+        <v>210</v>
+      </c>
+      <c r="H99" t="s">
+        <v>210</v>
+      </c>
+      <c r="I99" t="s">
+        <v>210</v>
+      </c>
+      <c r="J99" t="s">
+        <v>210</v>
+      </c>
+      <c r="K99" t="s">
+        <v>210</v>
+      </c>
+      <c r="L99" t="s">
+        <v>210</v>
+      </c>
+      <c r="M99" t="s">
+        <v>210</v>
+      </c>
+      <c r="N99" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
@@ -5376,6 +6168,30 @@
       <c r="F100" t="s">
         <v>210</v>
       </c>
+      <c r="G100" t="s">
+        <v>210</v>
+      </c>
+      <c r="H100" t="s">
+        <v>210</v>
+      </c>
+      <c r="I100" t="s">
+        <v>210</v>
+      </c>
+      <c r="J100" t="s">
+        <v>210</v>
+      </c>
+      <c r="K100" t="s">
+        <v>210</v>
+      </c>
+      <c r="L100" t="s">
+        <v>210</v>
+      </c>
+      <c r="M100" t="s">
+        <v>210</v>
+      </c>
+      <c r="N100" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
@@ -5616,6 +6432,30 @@
       <c r="F106" t="s">
         <v>210</v>
       </c>
+      <c r="G106" t="s">
+        <v>210</v>
+      </c>
+      <c r="H106" t="s">
+        <v>210</v>
+      </c>
+      <c r="I106" t="s">
+        <v>210</v>
+      </c>
+      <c r="J106" t="s">
+        <v>210</v>
+      </c>
+      <c r="K106" t="s">
+        <v>210</v>
+      </c>
+      <c r="L106" t="s">
+        <v>210</v>
+      </c>
+      <c r="M106" t="s">
+        <v>210</v>
+      </c>
+      <c r="N106" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5680,6 +6520,30 @@
       <c r="F108" t="s">
         <v>210</v>
       </c>
+      <c r="G108" t="s">
+        <v>210</v>
+      </c>
+      <c r="H108" t="s">
+        <v>210</v>
+      </c>
+      <c r="I108" t="s">
+        <v>210</v>
+      </c>
+      <c r="J108" t="s">
+        <v>210</v>
+      </c>
+      <c r="K108" t="s">
+        <v>210</v>
+      </c>
+      <c r="L108" t="s">
+        <v>210</v>
+      </c>
+      <c r="M108" t="s">
+        <v>210</v>
+      </c>
+      <c r="N108" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5832,6 +6696,30 @@
       <c r="F112" t="s">
         <v>210</v>
       </c>
+      <c r="G112" t="s">
+        <v>210</v>
+      </c>
+      <c r="H112" t="s">
+        <v>210</v>
+      </c>
+      <c r="I112" t="s">
+        <v>210</v>
+      </c>
+      <c r="J112" t="s">
+        <v>210</v>
+      </c>
+      <c r="K112" t="s">
+        <v>210</v>
+      </c>
+      <c r="L112" t="s">
+        <v>210</v>
+      </c>
+      <c r="M112" t="s">
+        <v>210</v>
+      </c>
+      <c r="N112" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
@@ -5940,6 +6828,30 @@
       <c r="F115" t="s">
         <v>210</v>
       </c>
+      <c r="G115" t="s">
+        <v>210</v>
+      </c>
+      <c r="H115" t="s">
+        <v>210</v>
+      </c>
+      <c r="I115" t="s">
+        <v>210</v>
+      </c>
+      <c r="J115" t="s">
+        <v>210</v>
+      </c>
+      <c r="K115" t="s">
+        <v>210</v>
+      </c>
+      <c r="L115" t="s">
+        <v>210</v>
+      </c>
+      <c r="M115" t="s">
+        <v>210</v>
+      </c>
+      <c r="N115" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
@@ -6048,6 +6960,30 @@
       <c r="F118" t="s">
         <v>210</v>
       </c>
+      <c r="G118" t="s">
+        <v>210</v>
+      </c>
+      <c r="H118" t="s">
+        <v>210</v>
+      </c>
+      <c r="I118" t="s">
+        <v>210</v>
+      </c>
+      <c r="J118" t="s">
+        <v>210</v>
+      </c>
+      <c r="K118" t="s">
+        <v>210</v>
+      </c>
+      <c r="L118" t="s">
+        <v>210</v>
+      </c>
+      <c r="M118" t="s">
+        <v>210</v>
+      </c>
+      <c r="N118" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
@@ -6112,6 +7048,30 @@
       <c r="F120" t="s">
         <v>210</v>
       </c>
+      <c r="G120" t="s">
+        <v>210</v>
+      </c>
+      <c r="H120" t="s">
+        <v>210</v>
+      </c>
+      <c r="I120" t="s">
+        <v>210</v>
+      </c>
+      <c r="J120" t="s">
+        <v>210</v>
+      </c>
+      <c r="K120" t="s">
+        <v>210</v>
+      </c>
+      <c r="L120" t="s">
+        <v>210</v>
+      </c>
+      <c r="M120" t="s">
+        <v>210</v>
+      </c>
+      <c r="N120" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6220,6 +7180,30 @@
       <c r="F123" t="s">
         <v>210</v>
       </c>
+      <c r="G123" t="s">
+        <v>210</v>
+      </c>
+      <c r="H123" t="s">
+        <v>210</v>
+      </c>
+      <c r="I123" t="s">
+        <v>210</v>
+      </c>
+      <c r="J123" t="s">
+        <v>210</v>
+      </c>
+      <c r="K123" t="s">
+        <v>210</v>
+      </c>
+      <c r="L123" t="s">
+        <v>210</v>
+      </c>
+      <c r="M123" t="s">
+        <v>210</v>
+      </c>
+      <c r="N123" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6240,6 +7224,30 @@
       <c r="F124" t="s">
         <v>210</v>
       </c>
+      <c r="G124" t="s">
+        <v>210</v>
+      </c>
+      <c r="H124" t="s">
+        <v>210</v>
+      </c>
+      <c r="I124" t="s">
+        <v>210</v>
+      </c>
+      <c r="J124" t="s">
+        <v>210</v>
+      </c>
+      <c r="K124" t="s">
+        <v>210</v>
+      </c>
+      <c r="L124" t="s">
+        <v>210</v>
+      </c>
+      <c r="M124" t="s">
+        <v>210</v>
+      </c>
+      <c r="N124" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
@@ -6304,6 +7312,30 @@
       <c r="F126" t="s">
         <v>210</v>
       </c>
+      <c r="G126" t="s">
+        <v>210</v>
+      </c>
+      <c r="H126" t="s">
+        <v>210</v>
+      </c>
+      <c r="I126" t="s">
+        <v>210</v>
+      </c>
+      <c r="J126" t="s">
+        <v>210</v>
+      </c>
+      <c r="K126" t="s">
+        <v>210</v>
+      </c>
+      <c r="L126" t="s">
+        <v>210</v>
+      </c>
+      <c r="M126" t="s">
+        <v>210</v>
+      </c>
+      <c r="N126" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
@@ -6368,6 +7400,30 @@
       <c r="F128" t="s">
         <v>210</v>
       </c>
+      <c r="G128" t="s">
+        <v>210</v>
+      </c>
+      <c r="H128" t="s">
+        <v>210</v>
+      </c>
+      <c r="I128" t="s">
+        <v>210</v>
+      </c>
+      <c r="J128" t="s">
+        <v>210</v>
+      </c>
+      <c r="K128" t="s">
+        <v>210</v>
+      </c>
+      <c r="L128" t="s">
+        <v>210</v>
+      </c>
+      <c r="M128" t="s">
+        <v>210</v>
+      </c>
+      <c r="N128" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
@@ -6608,6 +7664,30 @@
       <c r="F134" t="s">
         <v>210</v>
       </c>
+      <c r="G134" t="s">
+        <v>210</v>
+      </c>
+      <c r="H134" t="s">
+        <v>210</v>
+      </c>
+      <c r="I134" t="s">
+        <v>210</v>
+      </c>
+      <c r="J134" t="s">
+        <v>210</v>
+      </c>
+      <c r="K134" t="s">
+        <v>210</v>
+      </c>
+      <c r="L134" t="s">
+        <v>210</v>
+      </c>
+      <c r="M134" t="s">
+        <v>210</v>
+      </c>
+      <c r="N134" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
@@ -6628,6 +7708,30 @@
       <c r="F135" t="s">
         <v>210</v>
       </c>
+      <c r="G135" t="s">
+        <v>210</v>
+      </c>
+      <c r="H135" t="s">
+        <v>210</v>
+      </c>
+      <c r="I135" t="s">
+        <v>210</v>
+      </c>
+      <c r="J135" t="s">
+        <v>210</v>
+      </c>
+      <c r="K135" t="s">
+        <v>210</v>
+      </c>
+      <c r="L135" t="s">
+        <v>210</v>
+      </c>
+      <c r="M135" t="s">
+        <v>210</v>
+      </c>
+      <c r="N135" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6780,6 +7884,30 @@
       <c r="F139" t="s">
         <v>210</v>
       </c>
+      <c r="G139" t="s">
+        <v>210</v>
+      </c>
+      <c r="H139" t="s">
+        <v>210</v>
+      </c>
+      <c r="I139" t="s">
+        <v>210</v>
+      </c>
+      <c r="J139" t="s">
+        <v>210</v>
+      </c>
+      <c r="K139" t="s">
+        <v>210</v>
+      </c>
+      <c r="L139" t="s">
+        <v>210</v>
+      </c>
+      <c r="M139" t="s">
+        <v>210</v>
+      </c>
+      <c r="N139" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -6800,6 +7928,30 @@
       <c r="F140" t="s">
         <v>210</v>
       </c>
+      <c r="G140" t="s">
+        <v>210</v>
+      </c>
+      <c r="H140" t="s">
+        <v>210</v>
+      </c>
+      <c r="I140" t="s">
+        <v>210</v>
+      </c>
+      <c r="J140" t="s">
+        <v>210</v>
+      </c>
+      <c r="K140" t="s">
+        <v>210</v>
+      </c>
+      <c r="L140" t="s">
+        <v>210</v>
+      </c>
+      <c r="M140" t="s">
+        <v>210</v>
+      </c>
+      <c r="N140" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -6996,6 +8148,30 @@
       <c r="F145" t="s">
         <v>210</v>
       </c>
+      <c r="G145" t="s">
+        <v>210</v>
+      </c>
+      <c r="H145" t="s">
+        <v>210</v>
+      </c>
+      <c r="I145" t="s">
+        <v>210</v>
+      </c>
+      <c r="J145" t="s">
+        <v>210</v>
+      </c>
+      <c r="K145" t="s">
+        <v>210</v>
+      </c>
+      <c r="L145" t="s">
+        <v>210</v>
+      </c>
+      <c r="M145" t="s">
+        <v>210</v>
+      </c>
+      <c r="N145" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7192,6 +8368,30 @@
       <c r="F150" t="s">
         <v>210</v>
       </c>
+      <c r="G150" t="s">
+        <v>210</v>
+      </c>
+      <c r="H150" t="s">
+        <v>210</v>
+      </c>
+      <c r="I150" t="s">
+        <v>210</v>
+      </c>
+      <c r="J150" t="s">
+        <v>210</v>
+      </c>
+      <c r="K150" t="s">
+        <v>210</v>
+      </c>
+      <c r="L150" t="s">
+        <v>210</v>
+      </c>
+      <c r="M150" t="s">
+        <v>210</v>
+      </c>
+      <c r="N150" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7256,6 +8456,30 @@
       <c r="F152" t="s">
         <v>210</v>
       </c>
+      <c r="G152" t="s">
+        <v>210</v>
+      </c>
+      <c r="H152" t="s">
+        <v>210</v>
+      </c>
+      <c r="I152" t="s">
+        <v>210</v>
+      </c>
+      <c r="J152" t="s">
+        <v>210</v>
+      </c>
+      <c r="K152" t="s">
+        <v>210</v>
+      </c>
+      <c r="L152" t="s">
+        <v>210</v>
+      </c>
+      <c r="M152" t="s">
+        <v>210</v>
+      </c>
+      <c r="N152" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
@@ -7276,6 +8500,30 @@
       <c r="F153" t="s">
         <v>210</v>
       </c>
+      <c r="G153" t="s">
+        <v>210</v>
+      </c>
+      <c r="H153" t="s">
+        <v>210</v>
+      </c>
+      <c r="I153" t="s">
+        <v>210</v>
+      </c>
+      <c r="J153" t="s">
+        <v>210</v>
+      </c>
+      <c r="K153" t="s">
+        <v>210</v>
+      </c>
+      <c r="L153" t="s">
+        <v>210</v>
+      </c>
+      <c r="M153" t="s">
+        <v>210</v>
+      </c>
+      <c r="N153" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
@@ -7296,6 +8544,30 @@
       <c r="F154" t="s">
         <v>210</v>
       </c>
+      <c r="G154" t="s">
+        <v>210</v>
+      </c>
+      <c r="H154" t="s">
+        <v>210</v>
+      </c>
+      <c r="I154" t="s">
+        <v>210</v>
+      </c>
+      <c r="J154" t="s">
+        <v>210</v>
+      </c>
+      <c r="K154" t="s">
+        <v>210</v>
+      </c>
+      <c r="L154" t="s">
+        <v>210</v>
+      </c>
+      <c r="M154" t="s">
+        <v>210</v>
+      </c>
+      <c r="N154" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7360,6 +8632,30 @@
       <c r="F156" t="s">
         <v>210</v>
       </c>
+      <c r="G156" t="s">
+        <v>210</v>
+      </c>
+      <c r="H156" t="s">
+        <v>210</v>
+      </c>
+      <c r="I156" t="s">
+        <v>210</v>
+      </c>
+      <c r="J156" t="s">
+        <v>210</v>
+      </c>
+      <c r="K156" t="s">
+        <v>210</v>
+      </c>
+      <c r="L156" t="s">
+        <v>210</v>
+      </c>
+      <c r="M156" t="s">
+        <v>210</v>
+      </c>
+      <c r="N156" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7512,6 +8808,30 @@
       <c r="F160" t="s">
         <v>210</v>
       </c>
+      <c r="G160" t="s">
+        <v>210</v>
+      </c>
+      <c r="H160" t="s">
+        <v>210</v>
+      </c>
+      <c r="I160" t="s">
+        <v>210</v>
+      </c>
+      <c r="J160" t="s">
+        <v>210</v>
+      </c>
+      <c r="K160" t="s">
+        <v>210</v>
+      </c>
+      <c r="L160" t="s">
+        <v>210</v>
+      </c>
+      <c r="M160" t="s">
+        <v>210</v>
+      </c>
+      <c r="N160" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7796,6 +9116,30 @@
       <c r="F167" t="s">
         <v>210</v>
       </c>
+      <c r="G167" t="s">
+        <v>210</v>
+      </c>
+      <c r="H167" t="s">
+        <v>210</v>
+      </c>
+      <c r="I167" t="s">
+        <v>210</v>
+      </c>
+      <c r="J167" t="s">
+        <v>210</v>
+      </c>
+      <c r="K167" t="s">
+        <v>210</v>
+      </c>
+      <c r="L167" t="s">
+        <v>210</v>
+      </c>
+      <c r="M167" t="s">
+        <v>210</v>
+      </c>
+      <c r="N167" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -7948,6 +9292,30 @@
       <c r="F171" t="s">
         <v>210</v>
       </c>
+      <c r="G171" t="s">
+        <v>210</v>
+      </c>
+      <c r="H171" t="s">
+        <v>210</v>
+      </c>
+      <c r="I171" t="s">
+        <v>210</v>
+      </c>
+      <c r="J171" t="s">
+        <v>210</v>
+      </c>
+      <c r="K171" t="s">
+        <v>210</v>
+      </c>
+      <c r="L171" t="s">
+        <v>210</v>
+      </c>
+      <c r="M171" t="s">
+        <v>210</v>
+      </c>
+      <c r="N171" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
@@ -7968,6 +9336,30 @@
       <c r="F172" t="s">
         <v>210</v>
       </c>
+      <c r="G172" t="s">
+        <v>210</v>
+      </c>
+      <c r="H172" t="s">
+        <v>210</v>
+      </c>
+      <c r="I172" t="s">
+        <v>210</v>
+      </c>
+      <c r="J172" t="s">
+        <v>210</v>
+      </c>
+      <c r="K172" t="s">
+        <v>210</v>
+      </c>
+      <c r="L172" t="s">
+        <v>210</v>
+      </c>
+      <c r="M172" t="s">
+        <v>210</v>
+      </c>
+      <c r="N172" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
@@ -7988,6 +9380,30 @@
       <c r="F173" t="s">
         <v>210</v>
       </c>
+      <c r="G173" t="s">
+        <v>210</v>
+      </c>
+      <c r="H173" t="s">
+        <v>210</v>
+      </c>
+      <c r="I173" t="s">
+        <v>210</v>
+      </c>
+      <c r="J173" t="s">
+        <v>210</v>
+      </c>
+      <c r="K173" t="s">
+        <v>210</v>
+      </c>
+      <c r="L173" t="s">
+        <v>210</v>
+      </c>
+      <c r="M173" t="s">
+        <v>210</v>
+      </c>
+      <c r="N173" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8052,6 +9468,30 @@
       <c r="F175" t="s">
         <v>210</v>
       </c>
+      <c r="G175" t="s">
+        <v>210</v>
+      </c>
+      <c r="H175" t="s">
+        <v>210</v>
+      </c>
+      <c r="I175" t="s">
+        <v>210</v>
+      </c>
+      <c r="J175" t="s">
+        <v>210</v>
+      </c>
+      <c r="K175" t="s">
+        <v>210</v>
+      </c>
+      <c r="L175" t="s">
+        <v>210</v>
+      </c>
+      <c r="M175" t="s">
+        <v>210</v>
+      </c>
+      <c r="N175" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
@@ -8336,6 +9776,30 @@
       <c r="F182" t="s">
         <v>210</v>
       </c>
+      <c r="G182" t="s">
+        <v>210</v>
+      </c>
+      <c r="H182" t="s">
+        <v>210</v>
+      </c>
+      <c r="I182" t="s">
+        <v>210</v>
+      </c>
+      <c r="J182" t="s">
+        <v>210</v>
+      </c>
+      <c r="K182" t="s">
+        <v>210</v>
+      </c>
+      <c r="L182" t="s">
+        <v>210</v>
+      </c>
+      <c r="M182" t="s">
+        <v>210</v>
+      </c>
+      <c r="N182" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8444,6 +9908,30 @@
       <c r="F185" t="s">
         <v>210</v>
       </c>
+      <c r="G185" t="s">
+        <v>210</v>
+      </c>
+      <c r="H185" t="s">
+        <v>210</v>
+      </c>
+      <c r="I185" t="s">
+        <v>210</v>
+      </c>
+      <c r="J185" t="s">
+        <v>210</v>
+      </c>
+      <c r="K185" t="s">
+        <v>210</v>
+      </c>
+      <c r="L185" t="s">
+        <v>210</v>
+      </c>
+      <c r="M185" t="s">
+        <v>210</v>
+      </c>
+      <c r="N185" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
@@ -8640,6 +10128,30 @@
       <c r="F190" t="s">
         <v>210</v>
       </c>
+      <c r="G190" t="s">
+        <v>210</v>
+      </c>
+      <c r="H190" t="s">
+        <v>210</v>
+      </c>
+      <c r="I190" t="s">
+        <v>210</v>
+      </c>
+      <c r="J190" t="s">
+        <v>210</v>
+      </c>
+      <c r="K190" t="s">
+        <v>210</v>
+      </c>
+      <c r="L190" t="s">
+        <v>210</v>
+      </c>
+      <c r="M190" t="s">
+        <v>210</v>
+      </c>
+      <c r="N190" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
@@ -8702,6 +10214,30 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
+        <v>210</v>
+      </c>
+      <c r="G192" t="s">
+        <v>210</v>
+      </c>
+      <c r="H192" t="s">
+        <v>210</v>
+      </c>
+      <c r="I192" t="s">
+        <v>210</v>
+      </c>
+      <c r="J192" t="s">
+        <v>210</v>
+      </c>
+      <c r="K192" t="s">
+        <v>210</v>
+      </c>
+      <c r="L192" t="s">
+        <v>210</v>
+      </c>
+      <c r="M192" t="s">
+        <v>210</v>
+      </c>
+      <c r="N192" t="s">
         <v>210</v>
       </c>
     </row>

--- a/sequences/02_retrieval_2.xlsx
+++ b/sequences/02_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>stechen</t>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>merken</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>scheiden</t>
   </si>
   <si>
     <t>rasen</t>
   </si>
   <si>
-    <t>hassen</t>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>warnen</t>
   </si>
   <si>
     <t>seufzen</t>
   </si>
   <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
   </si>
   <si>
     <t>loben</t>
   </si>
   <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>schauen</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>sparen</t>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>erben</t>
   </si>
   <si>
     <t>drehen</t>
   </si>
   <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>posten</t>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>quälen</t>
   </si>
   <si>
     <t>hauen</t>
   </si>
   <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>füttern</t>
+    <t>doppeln</t>
   </si>
   <si>
     <t>mögen</t>
   </si>
   <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>tanzen</t>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>pissen</t>
   </si>
   <si>
     <t>kehren</t>
   </si>
   <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>russen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>socken</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>schwören</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>scheiden</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>daten</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>sichern</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>wohnen</t>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>lockern</t>
   </si>
   <si>
     <t>wenden</t>
   </si>
   <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>fällen</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>pfeifen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>hängen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>öffnen</t>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>reizen</t>
   </si>
   <si>
     <t>house/house017.jpg</t>

--- a/sequences/02_retrieval_2.xlsx
+++ b/sequences/02_retrieval_2.xlsx
@@ -73,1372 +73,1372 @@
     <t>iti</t>
   </si>
   <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>laden</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
     <t>achten</t>
   </si>
   <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>beten</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>lohnen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
     <t>kleben</t>
   </si>
   <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>blicken</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>fliegen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>lernen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>putzen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>stinken</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>hexen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
     <t>bitten</t>
   </si>
   <si>
-    <t>zeugen</t>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>schreiben</t>
   </si>
   <si>
     <t>leisten</t>
   </si>
   <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>beten</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>pressen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>wärmen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>fällen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>fehlen</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>blicken</t>
-  </si>
-  <si>
-    <t>fallen</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>foltern</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>löschen</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>bluten</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>fangen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>stinken</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>lieben</t>
-  </si>
-  <si>
-    <t>jagen</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>posten</t>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
   </si>
   <si>
     <t>house/house012.jpg</t>
   </si>
   <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
     <t>face/face025.jpg</t>
   </si>
   <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
   </si>
   <si>
     <t>dog/dog015.jpg</t>
   </si>
   <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
     <t>house</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>face/face099.jpg</t>
+  </si>
+  <si>
+    <t>house/house170.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower172.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog235.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower181.jpg</t>
+  </si>
+  <si>
+    <t>face/face258.jpg</t>
+  </si>
+  <si>
+    <t>house/house176.jpg</t>
+  </si>
+  <si>
+    <t>house/house200.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog178.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower180.jpg</t>
+  </si>
+  <si>
+    <t>face/face122.jpg</t>
+  </si>
+  <si>
+    <t>face/face165.jpg</t>
+  </si>
+  <si>
+    <t>face/face129.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog245.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog182.jpg</t>
+  </si>
+  <si>
+    <t>face/face163.jpg</t>
+  </si>
+  <si>
+    <t>house/house135.jpg</t>
+  </si>
+  <si>
+    <t>house/house192.jpg</t>
+  </si>
+  <si>
+    <t>house/house248.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog120.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower104.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog148.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower257.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower246.jpg</t>
+  </si>
+  <si>
+    <t>house/house097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower208.jpg</t>
+  </si>
+  <si>
+    <t>house/house142.jpg</t>
+  </si>
+  <si>
+    <t>house/house261.jpg</t>
+  </si>
+  <si>
+    <t>face/face100.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog177.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower189.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog241.jpg</t>
+  </si>
+  <si>
+    <t>house/house152.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower178.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower204.jpg</t>
+  </si>
+  <si>
+    <t>house/house224.jpg</t>
+  </si>
+  <si>
+    <t>face/face240.jpg</t>
+  </si>
+  <si>
+    <t>house/house222.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower223.jpg</t>
+  </si>
+  <si>
+    <t>face/face156.jpg</t>
+  </si>
+  <si>
+    <t>house/house204.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog191.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog108.jpg</t>
+  </si>
+  <si>
+    <t>face/face123.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower137.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower207.jpg</t>
+  </si>
+  <si>
+    <t>house/house153.jpg</t>
+  </si>
+  <si>
+    <t>face/face136.jpg</t>
+  </si>
+  <si>
+    <t>house/house163.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower099.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog137.jpg</t>
+  </si>
+  <si>
+    <t>house/house199.jpg</t>
+  </si>
+  <si>
+    <t>face/face227.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog158.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower209.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog180.jpg</t>
+  </si>
+  <si>
+    <t>house/house111.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog171.jpg</t>
+  </si>
+  <si>
+    <t>house/house114.jpg</t>
+  </si>
+  <si>
+    <t>face/face255.jpg</t>
+  </si>
+  <si>
+    <t>house/house213.jpg</t>
+  </si>
+  <si>
+    <t>face/face253.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower126.jpg</t>
+  </si>
+  <si>
+    <t>face/face202.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog107.jpg</t>
+  </si>
+  <si>
+    <t>house/house212.jpg</t>
+  </si>
+  <si>
+    <t>face/face160.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog186.jpg</t>
+  </si>
+  <si>
+    <t>face/face235.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower113.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower192.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower176.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog192.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog179.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog212.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog190.jpg</t>
+  </si>
+  <si>
+    <t>face/face170.jpg</t>
+  </si>
+  <si>
+    <t>face/face124.jpg</t>
+  </si>
+  <si>
+    <t>face/face145.jpg</t>
+  </si>
+  <si>
+    <t>face/face110.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower106.jpg</t>
+  </si>
+  <si>
+    <t>face/face138.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog246.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower239.jpg</t>
+  </si>
+  <si>
+    <t>house/house136.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower183.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog155.jpg</t>
+  </si>
+  <si>
+    <t>house/house177.jpg</t>
+  </si>
+  <si>
+    <t>house/house193.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog202.jpg</t>
+  </si>
+  <si>
+    <t>house/house191.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog124.jpg</t>
+  </si>
+  <si>
+    <t>house/house186.jpg</t>
+  </si>
+  <si>
+    <t>house/house137.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower229.jpg</t>
+  </si>
+  <si>
+    <t>face/face237.jpg</t>
+  </si>
+  <si>
+    <t>house/house130.jpg</t>
+  </si>
+  <si>
+    <t>face/face096.jpg</t>
   </si>
   <si>
     <t>flower/flower235.jpg</t>
   </si>
   <si>
-    <t>flower/flower172.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog120.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower181.jpg</t>
-  </si>
-  <si>
-    <t>house/house224.jpg</t>
-  </si>
-  <si>
-    <t>house/house111.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog190.jpg</t>
-  </si>
-  <si>
-    <t>house/house176.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog124.jpg</t>
+    <t>house/house133.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog132.jpg</t>
+  </si>
+  <si>
+    <t>face/face127.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog162.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower210.jpg</t>
+  </si>
+  <si>
+    <t>house/house154.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog140.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower191.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog242.jpg</t>
+  </si>
+  <si>
+    <t>house/house168.jpg</t>
+  </si>
+  <si>
+    <t>face/face229.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower202.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog209.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog194.jpg</t>
+  </si>
+  <si>
+    <t>face/face212.jpg</t>
   </si>
   <si>
     <t>flower/flower231.jpg</t>
   </si>
   <si>
-    <t>dog/dog182.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower239.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower180.jpg</t>
+    <t>flower/flower123.jpg</t>
+  </si>
+  <si>
+    <t>face/face215.jpg</t>
+  </si>
+  <si>
+    <t>face/face233.jpg</t>
+  </si>
+  <si>
+    <t>face/face178.jpg</t>
+  </si>
+  <si>
+    <t>house/house262.jpg</t>
+  </si>
+  <si>
+    <t>house/house233.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower122.jpg</t>
   </si>
   <si>
     <t>dog/dog126.jpg</t>
   </si>
   <si>
-    <t>house/house177.jpg</t>
-  </si>
-  <si>
-    <t>house/house097.jpg</t>
-  </si>
-  <si>
-    <t>house/house192.jpg</t>
-  </si>
-  <si>
-    <t>face/face240.jpg</t>
-  </si>
-  <si>
-    <t>house/house248.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog148.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower126.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower207.jpg</t>
-  </si>
-  <si>
-    <t>house/house153.jpg</t>
-  </si>
-  <si>
-    <t>house/house136.jpg</t>
+    <t>face/face132.jpg</t>
   </si>
   <si>
     <t>dog/dog216.jpg</t>
   </si>
   <si>
-    <t>flower/flower208.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower257.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower104.jpg</t>
-  </si>
-  <si>
-    <t>house/house163.jpg</t>
-  </si>
-  <si>
-    <t>house/house137.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog177.jpg</t>
-  </si>
-  <si>
-    <t>face/face237.jpg</t>
-  </si>
-  <si>
-    <t>face/face229.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog155.jpg</t>
-  </si>
-  <si>
-    <t>face/face235.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower192.jpg</t>
-  </si>
-  <si>
     <t>flower/flower128.jpg</t>
   </si>
   <si>
-    <t>face/face100.jpg</t>
-  </si>
-  <si>
-    <t>house/house262.jpg</t>
-  </si>
-  <si>
-    <t>house/house222.jpg</t>
-  </si>
-  <si>
-    <t>house/house170.jpg</t>
-  </si>
-  <si>
-    <t>house/house154.jpg</t>
-  </si>
-  <si>
-    <t>house/house168.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog235.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog179.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower123.jpg</t>
-  </si>
-  <si>
-    <t>face/face123.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower202.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower137.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog241.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog108.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower122.jpg</t>
-  </si>
-  <si>
-    <t>face/face132.jpg</t>
-  </si>
-  <si>
-    <t>face/face160.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog245.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog107.jpg</t>
-  </si>
-  <si>
-    <t>house/house133.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower176.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower229.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower183.jpg</t>
-  </si>
-  <si>
-    <t>face/face165.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower223.jpg</t>
-  </si>
-  <si>
-    <t>face/face122.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog242.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog178.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower113.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog158.jpg</t>
-  </si>
-  <si>
-    <t>face/face138.jpg</t>
-  </si>
-  <si>
-    <t>house/house233.jpg</t>
-  </si>
-  <si>
-    <t>face/face233.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog137.jpg</t>
-  </si>
-  <si>
-    <t>face/face156.jpg</t>
-  </si>
-  <si>
-    <t>face/face227.jpg</t>
-  </si>
-  <si>
     <t>flower/flower206.jpg</t>
   </si>
   <si>
-    <t>flower/flower191.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog140.jpg</t>
-  </si>
-  <si>
-    <t>face/face253.jpg</t>
-  </si>
-  <si>
-    <t>house/house135.jpg</t>
-  </si>
-  <si>
-    <t>face/face096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower106.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog180.jpg</t>
-  </si>
-  <si>
-    <t>house/house261.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower209.jpg</t>
-  </si>
-  <si>
-    <t>house/house142.jpg</t>
-  </si>
-  <si>
-    <t>face/face170.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower246.jpg</t>
-  </si>
-  <si>
-    <t>face/face255.jpg</t>
-  </si>
-  <si>
-    <t>face/face099.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog246.jpg</t>
-  </si>
-  <si>
-    <t>face/face129.jpg</t>
-  </si>
-  <si>
-    <t>face/face212.jpg</t>
-  </si>
-  <si>
-    <t>face/face110.jpg</t>
-  </si>
-  <si>
-    <t>face/face163.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog162.jpg</t>
-  </si>
-  <si>
     <t>face/face112.jpg</t>
   </si>
   <si>
-    <t>flower/flower099.jpg</t>
-  </si>
-  <si>
-    <t>house/house130.jpg</t>
-  </si>
-  <si>
-    <t>house/house152.jpg</t>
-  </si>
-  <si>
-    <t>face/face258.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower210.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog132.jpg</t>
-  </si>
-  <si>
-    <t>house/house213.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower189.jpg</t>
-  </si>
-  <si>
-    <t>house/house114.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog191.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower178.jpg</t>
-  </si>
-  <si>
-    <t>face/face215.jpg</t>
-  </si>
-  <si>
-    <t>house/house193.jpg</t>
-  </si>
-  <si>
-    <t>face/face202.jpg</t>
-  </si>
-  <si>
-    <t>face/face124.jpg</t>
-  </si>
-  <si>
-    <t>house/house199.jpg</t>
-  </si>
-  <si>
-    <t>house/house186.jpg</t>
-  </si>
-  <si>
-    <t>house/house204.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog209.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog192.jpg</t>
-  </si>
-  <si>
-    <t>face/face178.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog194.jpg</t>
-  </si>
-  <si>
-    <t>face/face127.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog212.jpg</t>
-  </si>
-  <si>
-    <t>house/house200.jpg</t>
-  </si>
-  <si>
-    <t>house/house212.jpg</t>
-  </si>
-  <si>
-    <t>face/face136.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower204.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog202.jpg</t>
-  </si>
-  <si>
-    <t>house/house191.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog171.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog186.jpg</t>
-  </si>
-  <si>
-    <t>face/face145.jpg</t>
-  </si>
-  <si>
     <t>same/old/uncued</t>
   </si>
   <si>
+    <t>correct/old/uncued</t>
+  </si>
+  <si>
     <t>correct/old/cued</t>
-  </si>
-  <si>
-    <t>correct/old/uncued</t>
   </si>
   <si>
     <t>other/old/uncued</t>
@@ -1887,10 +1887,10 @@
         <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="H2" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="I2" t="s">
         <v>344</v>
@@ -1899,13 +1899,13 @@
         <v>342</v>
       </c>
       <c r="K2" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="L2" t="s">
         <v>472</v>
       </c>
       <c r="M2" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="N2" t="s">
         <v>475</v>
@@ -1920,7 +1920,7 @@
         <v>211</v>
       </c>
       <c r="R2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="S2">
         <v>1.036904874785641</v>
@@ -1946,19 +1946,19 @@
         <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="H3" t="s">
-        <v>323</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
         <v>345</v>
       </c>
       <c r="J3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K3" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="L3" t="s">
         <v>472</v>
@@ -1970,7 +1970,7 @@
         <v>476</v>
       </c>
       <c r="O3" t="s">
-        <v>323</v>
+        <v>237</v>
       </c>
       <c r="P3" t="s">
         <v>475</v>
@@ -1979,7 +1979,7 @@
         <v>212</v>
       </c>
       <c r="R3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S3">
         <v>1.116694571474793</v>
@@ -1999,16 +1999,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H4" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="I4" t="s">
         <v>346</v>
@@ -2029,13 +2029,13 @@
         <v>476</v>
       </c>
       <c r="O4" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="P4" t="s">
         <v>475</v>
       </c>
       <c r="Q4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R4" t="s">
         <v>472</v>
@@ -2052,28 +2052,28 @@
         <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="I5" t="s">
         <v>347</v>
       </c>
       <c r="J5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K5" t="s">
         <v>214</v>
@@ -2088,13 +2088,13 @@
         <v>476</v>
       </c>
       <c r="O5" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="P5" t="s">
         <v>475</v>
       </c>
       <c r="Q5" t="s">
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="R5" t="s">
         <v>472</v>
@@ -2111,31 +2111,31 @@
         <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="H6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
         <v>348</v>
       </c>
       <c r="J6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K6" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="L6" t="s">
         <v>472</v>
@@ -2147,7 +2147,7 @@
         <v>474</v>
       </c>
       <c r="O6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P6" t="s">
         <v>475</v>
@@ -2176,31 +2176,31 @@
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>216</v>
       </c>
       <c r="G7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="I7" t="s">
         <v>349</v>
       </c>
       <c r="J7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L7" t="s">
         <v>475</v>
       </c>
       <c r="M7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N7" t="s">
         <v>472</v>
@@ -2347,7 +2347,7 @@
         <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="H10" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="I10" t="s">
         <v>350</v>
       </c>
       <c r="J10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K10" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="L10" t="s">
         <v>472</v>
@@ -2386,10 +2386,10 @@
         <v>218</v>
       </c>
       <c r="P10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q10" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="R10" t="s">
         <v>475</v>
@@ -2406,7 +2406,7 @@
         <v>219</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H11" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="I11" t="s">
         <v>351</v>
@@ -2430,7 +2430,7 @@
         <v>340</v>
       </c>
       <c r="K11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L11" t="s">
         <v>472</v>
@@ -2439,10 +2439,10 @@
         <v>219</v>
       </c>
       <c r="N11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O11" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="P11" t="s">
         <v>475</v>
@@ -2465,7 +2465,7 @@
         <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2477,25 +2477,25 @@
         <v>220</v>
       </c>
       <c r="G12" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="H12" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="I12" t="s">
         <v>352</v>
       </c>
       <c r="J12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K12" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="L12" t="s">
         <v>475</v>
       </c>
       <c r="M12" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="N12" t="s">
         <v>472</v>
@@ -2504,7 +2504,7 @@
         <v>220</v>
       </c>
       <c r="P12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q12" t="s">
         <v>352</v>
@@ -2598,13 +2598,13 @@
         <v>274</v>
       </c>
       <c r="H14" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="I14" t="s">
         <v>353</v>
       </c>
       <c r="J14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K14" t="s">
         <v>274</v>
@@ -2619,7 +2619,7 @@
         <v>476</v>
       </c>
       <c r="O14" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="P14" t="s">
         <v>475</v>
@@ -2628,7 +2628,7 @@
         <v>221</v>
       </c>
       <c r="R14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="S14">
         <v>1.070104107482289</v>
@@ -2654,22 +2654,22 @@
         <v>222</v>
       </c>
       <c r="G15" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="H15" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="I15" t="s">
         <v>354</v>
       </c>
       <c r="J15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K15" t="s">
         <v>222</v>
       </c>
       <c r="L15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M15" t="s">
         <v>354</v>
@@ -2678,13 +2678,13 @@
         <v>476</v>
       </c>
       <c r="O15" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="P15" t="s">
         <v>472</v>
       </c>
       <c r="Q15" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="R15" t="s">
         <v>475</v>
@@ -2701,7 +2701,7 @@
         <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>223</v>
       </c>
       <c r="G16" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="I16" t="s">
         <v>355</v>
@@ -2728,16 +2728,16 @@
         <v>223</v>
       </c>
       <c r="L16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M16" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="N16" t="s">
         <v>475</v>
       </c>
       <c r="O16" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="P16" t="s">
         <v>472</v>
@@ -2772,10 +2772,10 @@
         <v>224</v>
       </c>
       <c r="G17" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H17" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="I17" t="s">
         <v>356</v>
@@ -2784,7 +2784,7 @@
         <v>342</v>
       </c>
       <c r="K17" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="L17" t="s">
         <v>475</v>
@@ -2793,7 +2793,7 @@
         <v>224</v>
       </c>
       <c r="N17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O17" t="s">
         <v>356</v>
@@ -2802,7 +2802,7 @@
         <v>476</v>
       </c>
       <c r="Q17" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="R17" t="s">
         <v>472</v>
@@ -2878,7 +2878,7 @@
         <v>225</v>
       </c>
       <c r="C19" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2890,16 +2890,16 @@
         <v>225</v>
       </c>
       <c r="G19" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="H19" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="I19" t="s">
         <v>357</v>
       </c>
       <c r="J19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K19" t="s">
         <v>357</v>
@@ -2908,13 +2908,13 @@
         <v>476</v>
       </c>
       <c r="M19" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="N19" t="s">
         <v>472</v>
       </c>
       <c r="O19" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="P19" t="s">
         <v>475</v>
@@ -2923,7 +2923,7 @@
         <v>225</v>
       </c>
       <c r="R19" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="S19">
         <v>1.010525793351648</v>
@@ -3008,16 +3008,16 @@
         <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="H21" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="I21" t="s">
         <v>358</v>
       </c>
       <c r="J21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K21" t="s">
         <v>358</v>
@@ -3026,13 +3026,13 @@
         <v>476</v>
       </c>
       <c r="M21" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N21" t="s">
         <v>475</v>
       </c>
       <c r="O21" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="P21" t="s">
         <v>472</v>
@@ -3041,7 +3041,7 @@
         <v>226</v>
       </c>
       <c r="R21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S21">
         <v>1.00125536551874</v>
@@ -3126,19 +3126,19 @@
         <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H23" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I23" t="s">
         <v>359</v>
       </c>
       <c r="J23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K23" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
         <v>472</v>
@@ -3147,7 +3147,7 @@
         <v>227</v>
       </c>
       <c r="N23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O23" t="s">
         <v>359</v>
@@ -3156,7 +3156,7 @@
         <v>476</v>
       </c>
       <c r="Q23" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="R23" t="s">
         <v>475</v>
@@ -3185,10 +3185,10 @@
         <v>228</v>
       </c>
       <c r="G24" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H24" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="I24" t="s">
         <v>360</v>
@@ -3200,16 +3200,16 @@
         <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M24" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s">
         <v>472</v>
       </c>
       <c r="O24" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="P24" t="s">
         <v>475</v>
@@ -3232,7 +3232,7 @@
         <v>229</v>
       </c>
       <c r="C25" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3244,25 +3244,25 @@
         <v>229</v>
       </c>
       <c r="G25" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="H25" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="I25" t="s">
         <v>361</v>
       </c>
       <c r="J25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K25" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="L25" t="s">
         <v>472</v>
       </c>
       <c r="M25" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="N25" t="s">
         <v>475</v>
@@ -3271,7 +3271,7 @@
         <v>229</v>
       </c>
       <c r="P25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q25" t="s">
         <v>361</v>
@@ -3297,16 +3297,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H26" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="I26" t="s">
         <v>362</v>
@@ -3315,13 +3315,13 @@
         <v>340</v>
       </c>
       <c r="K26" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="L26" t="s">
         <v>475</v>
       </c>
       <c r="M26" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s">
         <v>472</v>
@@ -3362,16 +3362,16 @@
         <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="H27" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I27" t="s">
         <v>363</v>
       </c>
       <c r="J27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K27" t="s">
         <v>363</v>
@@ -3383,16 +3383,16 @@
         <v>231</v>
       </c>
       <c r="N27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O27" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P27" t="s">
         <v>475</v>
       </c>
       <c r="Q27" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="R27" t="s">
         <v>472</v>
@@ -3409,7 +3409,7 @@
         <v>232</v>
       </c>
       <c r="C28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         <v>232</v>
       </c>
       <c r="G28" t="s">
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="H28" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="I28" t="s">
         <v>364</v>
       </c>
       <c r="J28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K28" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s">
         <v>475</v>
@@ -3442,10 +3442,10 @@
         <v>232</v>
       </c>
       <c r="N28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O28" t="s">
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="P28" t="s">
         <v>472</v>
@@ -3527,28 +3527,28 @@
         <v>233</v>
       </c>
       <c r="C30" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>233</v>
       </c>
       <c r="G30" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="H30" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="I30" t="s">
         <v>365</v>
       </c>
       <c r="J30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K30" t="s">
         <v>365</v>
@@ -3557,7 +3557,7 @@
         <v>476</v>
       </c>
       <c r="M30" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N30" t="s">
         <v>475</v>
@@ -3569,7 +3569,7 @@
         <v>473</v>
       </c>
       <c r="Q30" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="R30" t="s">
         <v>472</v>
@@ -3586,7 +3586,7 @@
         <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>234</v>
       </c>
       <c r="G31" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="H31" t="s">
         <v>302</v>
@@ -3607,10 +3607,10 @@
         <v>366</v>
       </c>
       <c r="J31" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K31" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s">
         <v>472</v>
@@ -3619,7 +3619,7 @@
         <v>234</v>
       </c>
       <c r="N31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O31" t="s">
         <v>366</v>
@@ -3704,7 +3704,7 @@
         <v>235</v>
       </c>
       <c r="C33" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3716,16 +3716,16 @@
         <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="H33" t="s">
-        <v>334</v>
+        <v>225</v>
       </c>
       <c r="I33" t="s">
         <v>367</v>
       </c>
       <c r="J33" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K33" t="s">
         <v>367</v>
@@ -3734,7 +3734,7 @@
         <v>476</v>
       </c>
       <c r="M33" t="s">
-        <v>334</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s">
         <v>475</v>
@@ -3743,10 +3743,10 @@
         <v>235</v>
       </c>
       <c r="P33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q33" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="R33" t="s">
         <v>472</v>
@@ -3763,31 +3763,31 @@
         <v>236</v>
       </c>
       <c r="C34" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
         <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="H34" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="I34" t="s">
         <v>368</v>
       </c>
       <c r="J34" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s">
         <v>472</v>
@@ -3799,7 +3799,7 @@
         <v>476</v>
       </c>
       <c r="O34" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="P34" t="s">
         <v>475</v>
@@ -3881,7 +3881,7 @@
         <v>237</v>
       </c>
       <c r="C36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -3893,16 +3893,16 @@
         <v>237</v>
       </c>
       <c r="G36" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="H36" t="s">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="I36" t="s">
         <v>369</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s">
         <v>369</v>
@@ -3911,13 +3911,13 @@
         <v>476</v>
       </c>
       <c r="M36" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="N36" t="s">
         <v>472</v>
       </c>
       <c r="O36" t="s">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="P36" t="s">
         <v>475</v>
@@ -3926,7 +3926,7 @@
         <v>237</v>
       </c>
       <c r="R36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S36">
         <v>1.067834366351537</v>
@@ -3940,7 +3940,7 @@
         <v>238</v>
       </c>
       <c r="C37" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>238</v>
       </c>
       <c r="G37" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="H37" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="I37" t="s">
         <v>370</v>
       </c>
       <c r="J37" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s">
         <v>472</v>
@@ -3973,10 +3973,10 @@
         <v>238</v>
       </c>
       <c r="N37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O37" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="P37" t="s">
         <v>475</v>
@@ -3999,28 +3999,28 @@
         <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>239</v>
       </c>
       <c r="G38" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="H38" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="I38" t="s">
         <v>371</v>
       </c>
       <c r="J38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s">
         <v>239</v>
@@ -4029,13 +4029,13 @@
         <v>474</v>
       </c>
       <c r="M38" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="N38" t="s">
         <v>472</v>
       </c>
       <c r="O38" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="P38" t="s">
         <v>475</v>
@@ -4176,28 +4176,28 @@
         <v>240</v>
       </c>
       <c r="C41" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
         <v>240</v>
       </c>
       <c r="G41" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="H41" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="I41" t="s">
         <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K41" t="s">
         <v>240</v>
@@ -4212,13 +4212,13 @@
         <v>476</v>
       </c>
       <c r="O41" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="P41" t="s">
         <v>472</v>
       </c>
       <c r="Q41" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="R41" t="s">
         <v>475</v>
@@ -4235,7 +4235,7 @@
         <v>241</v>
       </c>
       <c r="C42" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4247,25 +4247,25 @@
         <v>241</v>
       </c>
       <c r="G42" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="I42" t="s">
         <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="L42" t="s">
         <v>472</v>
       </c>
       <c r="M42" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="N42" t="s">
         <v>475</v>
@@ -4274,7 +4274,7 @@
         <v>241</v>
       </c>
       <c r="P42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q42" t="s">
         <v>373</v>
@@ -4353,7 +4353,7 @@
         <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>242</v>
       </c>
       <c r="G44" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="H44" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="I44" t="s">
         <v>374</v>
@@ -4380,7 +4380,7 @@
         <v>242</v>
       </c>
       <c r="L44" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M44" t="s">
         <v>374</v>
@@ -4389,13 +4389,13 @@
         <v>476</v>
       </c>
       <c r="O44" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="P44" t="s">
         <v>472</v>
       </c>
       <c r="Q44" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="R44" t="s">
         <v>475</v>
@@ -4477,16 +4477,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>243</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="H46" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="I46" t="s">
         <v>375</v>
@@ -4501,7 +4501,7 @@
         <v>474</v>
       </c>
       <c r="M46" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="N46" t="s">
         <v>475</v>
@@ -4513,7 +4513,7 @@
         <v>476</v>
       </c>
       <c r="Q46" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="R46" t="s">
         <v>472</v>
@@ -4589,7 +4589,7 @@
         <v>244</v>
       </c>
       <c r="C48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4601,16 +4601,16 @@
         <v>244</v>
       </c>
       <c r="G48" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="H48" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="I48" t="s">
         <v>376</v>
       </c>
       <c r="J48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K48" t="s">
         <v>376</v>
@@ -4622,16 +4622,16 @@
         <v>244</v>
       </c>
       <c r="N48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O48" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="P48" t="s">
         <v>472</v>
       </c>
       <c r="Q48" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="R48" t="s">
         <v>475</v>
@@ -4648,7 +4648,7 @@
         <v>245</v>
       </c>
       <c r="C49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -4660,10 +4660,10 @@
         <v>245</v>
       </c>
       <c r="G49" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="H49" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="I49" t="s">
         <v>377</v>
@@ -4678,7 +4678,7 @@
         <v>476</v>
       </c>
       <c r="M49" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="N49" t="s">
         <v>475</v>
@@ -4687,10 +4687,10 @@
         <v>245</v>
       </c>
       <c r="P49" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q49" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="R49" t="s">
         <v>472</v>
@@ -4766,28 +4766,28 @@
         <v>246</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
         <v>246</v>
       </c>
       <c r="G51" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H51" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I51" t="s">
         <v>378</v>
       </c>
       <c r="J51" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K51" t="s">
         <v>378</v>
@@ -4796,13 +4796,13 @@
         <v>476</v>
       </c>
       <c r="M51" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="N51" t="s">
         <v>472</v>
       </c>
       <c r="O51" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P51" t="s">
         <v>475</v>
@@ -4825,7 +4825,7 @@
         <v>247</v>
       </c>
       <c r="C52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4837,19 +4837,19 @@
         <v>247</v>
       </c>
       <c r="G52" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="H52" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="I52" t="s">
         <v>379</v>
       </c>
       <c r="J52" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K52" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="L52" t="s">
         <v>475</v>
@@ -4858,7 +4858,7 @@
         <v>247</v>
       </c>
       <c r="N52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O52" t="s">
         <v>379</v>
@@ -4867,7 +4867,7 @@
         <v>476</v>
       </c>
       <c r="Q52" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="R52" t="s">
         <v>472</v>
@@ -4884,22 +4884,22 @@
         <v>248</v>
       </c>
       <c r="C53" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>248</v>
       </c>
       <c r="G53" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H53" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="I53" t="s">
         <v>380</v>
@@ -4908,7 +4908,7 @@
         <v>342</v>
       </c>
       <c r="K53" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="L53" t="s">
         <v>472</v>
@@ -4920,7 +4920,7 @@
         <v>474</v>
       </c>
       <c r="O53" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="P53" t="s">
         <v>475</v>
@@ -5073,16 +5073,16 @@
         <v>249</v>
       </c>
       <c r="G56" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="H56" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="I56" t="s">
         <v>381</v>
       </c>
       <c r="J56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K56" t="s">
         <v>381</v>
@@ -5094,16 +5094,16 @@
         <v>249</v>
       </c>
       <c r="N56" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O56" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="P56" t="s">
         <v>472</v>
       </c>
       <c r="Q56" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="R56" t="s">
         <v>475</v>
@@ -5179,7 +5179,7 @@
         <v>250</v>
       </c>
       <c r="C58" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -5191,19 +5191,19 @@
         <v>250</v>
       </c>
       <c r="G58" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I58" t="s">
         <v>382</v>
       </c>
       <c r="J58" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K58" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L58" t="s">
         <v>472</v>
@@ -5218,10 +5218,10 @@
         <v>250</v>
       </c>
       <c r="P58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R58" t="s">
         <v>475</v>
@@ -5238,31 +5238,31 @@
         <v>251</v>
       </c>
       <c r="C59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>251</v>
       </c>
       <c r="G59" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="H59" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="I59" t="s">
         <v>383</v>
       </c>
       <c r="J59" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K59" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="L59" t="s">
         <v>472</v>
@@ -5280,7 +5280,7 @@
         <v>474</v>
       </c>
       <c r="Q59" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="R59" t="s">
         <v>475</v>
@@ -5297,7 +5297,7 @@
         <v>252</v>
       </c>
       <c r="C60" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -5309,10 +5309,10 @@
         <v>252</v>
       </c>
       <c r="G60" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="H60" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="I60" t="s">
         <v>384</v>
@@ -5321,7 +5321,7 @@
         <v>340</v>
       </c>
       <c r="K60" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="L60" t="s">
         <v>475</v>
@@ -5330,10 +5330,10 @@
         <v>252</v>
       </c>
       <c r="N60" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O60" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="P60" t="s">
         <v>472</v>
@@ -5427,16 +5427,16 @@
         <v>253</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H62" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I62" t="s">
         <v>385</v>
       </c>
       <c r="J62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K62" t="s">
         <v>385</v>
@@ -5448,16 +5448,16 @@
         <v>253</v>
       </c>
       <c r="N62" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P62" t="s">
         <v>472</v>
       </c>
       <c r="Q62" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="R62" t="s">
         <v>475</v>
@@ -5539,22 +5539,22 @@
         <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>254</v>
       </c>
       <c r="G64" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="H64" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="I64" t="s">
         <v>386</v>
       </c>
       <c r="J64" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K64" t="s">
         <v>386</v>
@@ -5569,13 +5569,13 @@
         <v>474</v>
       </c>
       <c r="O64" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="P64" t="s">
         <v>475</v>
       </c>
       <c r="Q64" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="R64" t="s">
         <v>472</v>
@@ -5604,19 +5604,19 @@
         <v>255</v>
       </c>
       <c r="G65" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="H65" t="s">
-        <v>235</v>
+        <v>327</v>
       </c>
       <c r="I65" t="s">
         <v>387</v>
       </c>
       <c r="J65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K65" t="s">
-        <v>235</v>
+        <v>327</v>
       </c>
       <c r="L65" t="s">
         <v>475</v>
@@ -5625,7 +5625,7 @@
         <v>255</v>
       </c>
       <c r="N65" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O65" t="s">
         <v>387</v>
@@ -5634,7 +5634,7 @@
         <v>476</v>
       </c>
       <c r="Q65" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="R65" t="s">
         <v>472</v>
@@ -5710,22 +5710,22 @@
         <v>256</v>
       </c>
       <c r="C67" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>256</v>
       </c>
       <c r="G67" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="H67" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="I67" t="s">
         <v>388</v>
@@ -5734,7 +5734,7 @@
         <v>343</v>
       </c>
       <c r="K67" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="L67" t="s">
         <v>472</v>
@@ -5752,7 +5752,7 @@
         <v>476</v>
       </c>
       <c r="Q67" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="R67" t="s">
         <v>475</v>
@@ -5769,7 +5769,7 @@
         <v>257</v>
       </c>
       <c r="C68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -5781,19 +5781,19 @@
         <v>257</v>
       </c>
       <c r="G68" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="H68" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="I68" t="s">
         <v>389</v>
       </c>
       <c r="J68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K68" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="L68" t="s">
         <v>475</v>
@@ -5802,10 +5802,10 @@
         <v>257</v>
       </c>
       <c r="N68" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O68" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="P68" t="s">
         <v>472</v>
@@ -5828,28 +5828,28 @@
         <v>258</v>
       </c>
       <c r="C69" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
         <v>258</v>
       </c>
       <c r="G69" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
       <c r="H69" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="I69" t="s">
         <v>390</v>
       </c>
       <c r="J69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K69" t="s">
         <v>258</v>
@@ -5864,13 +5864,13 @@
         <v>476</v>
       </c>
       <c r="O69" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
       <c r="P69" t="s">
         <v>472</v>
       </c>
       <c r="Q69" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="R69" t="s">
         <v>475</v>
@@ -5887,22 +5887,22 @@
         <v>259</v>
       </c>
       <c r="C70" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>259</v>
       </c>
       <c r="G70" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="H70" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="I70" t="s">
         <v>391</v>
@@ -5923,13 +5923,13 @@
         <v>474</v>
       </c>
       <c r="O70" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P70" t="s">
         <v>472</v>
       </c>
       <c r="Q70" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="R70" t="s">
         <v>475</v>
@@ -5946,7 +5946,7 @@
         <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -5958,19 +5958,19 @@
         <v>260</v>
       </c>
       <c r="G71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H71" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I71" t="s">
         <v>392</v>
       </c>
       <c r="J71" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L71" t="s">
         <v>472</v>
@@ -5979,10 +5979,10 @@
         <v>260</v>
       </c>
       <c r="N71" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O71" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="P71" t="s">
         <v>475</v>
@@ -6011,16 +6011,16 @@
         <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>261</v>
       </c>
       <c r="G72" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="H72" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I72" t="s">
         <v>393</v>
@@ -6029,7 +6029,7 @@
         <v>343</v>
       </c>
       <c r="K72" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L72" t="s">
         <v>475</v>
@@ -6047,7 +6047,7 @@
         <v>476</v>
       </c>
       <c r="Q72" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="R72" t="s">
         <v>472</v>
@@ -6123,28 +6123,28 @@
         <v>262</v>
       </c>
       <c r="C74" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
         <v>262</v>
       </c>
       <c r="G74" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="H74" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="I74" t="s">
         <v>394</v>
       </c>
       <c r="J74" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K74" t="s">
         <v>394</v>
@@ -6159,13 +6159,13 @@
         <v>473</v>
       </c>
       <c r="O74" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="P74" t="s">
         <v>475</v>
       </c>
       <c r="Q74" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="R74" t="s">
         <v>472</v>
@@ -6241,7 +6241,7 @@
         <v>263</v>
       </c>
       <c r="C76" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -6253,31 +6253,31 @@
         <v>263</v>
       </c>
       <c r="G76" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H76" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="I76" t="s">
         <v>395</v>
       </c>
       <c r="J76" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K76" t="s">
         <v>263</v>
       </c>
       <c r="L76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M76" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="N76" t="s">
         <v>475</v>
       </c>
       <c r="O76" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="P76" t="s">
         <v>472</v>
@@ -6300,7 +6300,7 @@
         <v>264</v>
       </c>
       <c r="C77" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -6312,19 +6312,19 @@
         <v>264</v>
       </c>
       <c r="G77" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I77" t="s">
         <v>396</v>
       </c>
       <c r="J77" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K77" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="L77" t="s">
         <v>472</v>
@@ -6339,10 +6339,10 @@
         <v>264</v>
       </c>
       <c r="P77" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q77" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="R77" t="s">
         <v>475</v>
@@ -6365,16 +6365,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
         <v>265</v>
       </c>
       <c r="G78" t="s">
-        <v>326</v>
+        <v>213</v>
       </c>
       <c r="H78" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="I78" t="s">
         <v>397</v>
@@ -6383,7 +6383,7 @@
         <v>341</v>
       </c>
       <c r="K78" t="s">
-        <v>326</v>
+        <v>213</v>
       </c>
       <c r="L78" t="s">
         <v>472</v>
@@ -6395,7 +6395,7 @@
         <v>476</v>
       </c>
       <c r="O78" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="P78" t="s">
         <v>475</v>
@@ -6418,7 +6418,7 @@
         <v>266</v>
       </c>
       <c r="C79" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>266</v>
       </c>
       <c r="G79" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H79" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="I79" t="s">
         <v>398</v>
@@ -6442,7 +6442,7 @@
         <v>343</v>
       </c>
       <c r="K79" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L79" t="s">
         <v>472</v>
@@ -6454,7 +6454,7 @@
         <v>476</v>
       </c>
       <c r="O79" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="P79" t="s">
         <v>475</v>
@@ -6463,7 +6463,7 @@
         <v>266</v>
       </c>
       <c r="R79" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S79">
         <v>1.152687742643108</v>
@@ -6477,37 +6477,37 @@
         <v>267</v>
       </c>
       <c r="C80" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="s">
         <v>267</v>
       </c>
       <c r="G80" t="s">
-        <v>338</v>
+        <v>243</v>
       </c>
       <c r="H80" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="I80" t="s">
         <v>399</v>
       </c>
       <c r="J80" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K80" t="s">
-        <v>338</v>
+        <v>243</v>
       </c>
       <c r="L80" t="s">
         <v>472</v>
       </c>
       <c r="M80" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="N80" t="s">
         <v>475</v>
@@ -6595,22 +6595,22 @@
         <v>268</v>
       </c>
       <c r="C82" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="s">
         <v>268</v>
       </c>
       <c r="G82" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="H82" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="I82" t="s">
         <v>400</v>
@@ -6625,7 +6625,7 @@
         <v>473</v>
       </c>
       <c r="M82" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="N82" t="s">
         <v>472</v>
@@ -6637,7 +6637,7 @@
         <v>476</v>
       </c>
       <c r="Q82" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="R82" t="s">
         <v>475</v>
@@ -6654,7 +6654,7 @@
         <v>269</v>
       </c>
       <c r="C83" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -6666,16 +6666,16 @@
         <v>269</v>
       </c>
       <c r="G83" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="H83" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="I83" t="s">
         <v>401</v>
       </c>
       <c r="J83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K83" t="s">
         <v>401</v>
@@ -6687,16 +6687,16 @@
         <v>269</v>
       </c>
       <c r="N83" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O83" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="P83" t="s">
         <v>475</v>
       </c>
       <c r="Q83" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="R83" t="s">
         <v>472</v>
@@ -6713,7 +6713,7 @@
         <v>270</v>
       </c>
       <c r="C84" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -6725,19 +6725,19 @@
         <v>270</v>
       </c>
       <c r="G84" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="H84" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="I84" t="s">
         <v>402</v>
       </c>
       <c r="J84" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K84" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="L84" t="s">
         <v>472</v>
@@ -6752,10 +6752,10 @@
         <v>270</v>
       </c>
       <c r="P84" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q84" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="R84" t="s">
         <v>475</v>
@@ -6772,22 +6772,22 @@
         <v>271</v>
       </c>
       <c r="C85" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>271</v>
       </c>
       <c r="G85" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="H85" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="I85" t="s">
         <v>403</v>
@@ -6802,13 +6802,13 @@
         <v>476</v>
       </c>
       <c r="M85" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="N85" t="s">
         <v>472</v>
       </c>
       <c r="O85" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="P85" t="s">
         <v>475</v>
@@ -6890,37 +6890,37 @@
         <v>272</v>
       </c>
       <c r="C87" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
         <v>272</v>
       </c>
       <c r="G87" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="H87" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="I87" t="s">
         <v>404</v>
       </c>
       <c r="J87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K87" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="L87" t="s">
         <v>475</v>
       </c>
       <c r="M87" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="N87" t="s">
         <v>472</v>
@@ -6949,7 +6949,7 @@
         <v>273</v>
       </c>
       <c r="C88" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -6961,10 +6961,10 @@
         <v>273</v>
       </c>
       <c r="G88" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="H88" t="s">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="I88" t="s">
         <v>405</v>
@@ -6982,16 +6982,16 @@
         <v>273</v>
       </c>
       <c r="N88" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O88" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="P88" t="s">
         <v>472</v>
       </c>
       <c r="Q88" t="s">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="R88" t="s">
         <v>475</v>
@@ -7020,31 +7020,31 @@
         <v>274</v>
       </c>
       <c r="G89" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="H89" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="I89" t="s">
         <v>406</v>
       </c>
       <c r="J89" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K89" t="s">
         <v>274</v>
       </c>
       <c r="L89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M89" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="N89" t="s">
         <v>472</v>
       </c>
       <c r="O89" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="P89" t="s">
         <v>475</v>
@@ -7067,37 +7067,37 @@
         <v>275</v>
       </c>
       <c r="C90" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>275</v>
       </c>
       <c r="G90" t="s">
-        <v>329</v>
+        <v>224</v>
       </c>
       <c r="H90" t="s">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="I90" t="s">
         <v>407</v>
       </c>
       <c r="J90" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K90" t="s">
-        <v>329</v>
+        <v>224</v>
       </c>
       <c r="L90" t="s">
         <v>472</v>
       </c>
       <c r="M90" t="s">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="N90" t="s">
         <v>475</v>
@@ -7126,31 +7126,31 @@
         <v>276</v>
       </c>
       <c r="C91" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
         <v>276</v>
       </c>
       <c r="G91" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="H91" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="I91" t="s">
         <v>408</v>
       </c>
       <c r="J91" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K91" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="L91" t="s">
         <v>472</v>
@@ -7162,7 +7162,7 @@
         <v>473</v>
       </c>
       <c r="O91" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="P91" t="s">
         <v>475</v>
@@ -7315,25 +7315,25 @@
         <v>277</v>
       </c>
       <c r="G94" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="H94" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="I94" t="s">
         <v>409</v>
       </c>
       <c r="J94" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K94" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L94" t="s">
         <v>475</v>
       </c>
       <c r="M94" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="N94" t="s">
         <v>472</v>
@@ -7342,7 +7342,7 @@
         <v>277</v>
       </c>
       <c r="P94" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q94" t="s">
         <v>409</v>
@@ -7362,31 +7362,31 @@
         <v>278</v>
       </c>
       <c r="C95" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
         <v>278</v>
       </c>
       <c r="G95" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="H95" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="I95" t="s">
         <v>410</v>
       </c>
       <c r="J95" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K95" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="L95" t="s">
         <v>475</v>
@@ -7404,7 +7404,7 @@
         <v>473</v>
       </c>
       <c r="Q95" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="R95" t="s">
         <v>472</v>
@@ -7421,22 +7421,22 @@
         <v>279</v>
       </c>
       <c r="C96" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
         <v>279</v>
       </c>
       <c r="G96" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="H96" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I96" t="s">
         <v>411</v>
@@ -7451,7 +7451,7 @@
         <v>476</v>
       </c>
       <c r="M96" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="N96" t="s">
         <v>472</v>
@@ -7463,7 +7463,7 @@
         <v>473</v>
       </c>
       <c r="Q96" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="R96" t="s">
         <v>475</v>
@@ -7480,7 +7480,7 @@
         <v>280</v>
       </c>
       <c r="C97" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -7492,19 +7492,19 @@
         <v>280</v>
       </c>
       <c r="G97" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="H97" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="I97" t="s">
         <v>412</v>
       </c>
       <c r="J97" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K97" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="L97" t="s">
         <v>475</v>
@@ -7516,7 +7516,7 @@
         <v>476</v>
       </c>
       <c r="O97" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="P97" t="s">
         <v>472</v>
@@ -7525,7 +7525,7 @@
         <v>280</v>
       </c>
       <c r="R97" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="S97">
         <v>1.072520999451227</v>
@@ -7598,7 +7598,7 @@
         <v>281</v>
       </c>
       <c r="C99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -7613,13 +7613,13 @@
         <v>320</v>
       </c>
       <c r="H99" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="I99" t="s">
         <v>413</v>
       </c>
       <c r="J99" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K99" t="s">
         <v>320</v>
@@ -7637,10 +7637,10 @@
         <v>281</v>
       </c>
       <c r="P99" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q99" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="R99" t="s">
         <v>475</v>
@@ -7657,7 +7657,7 @@
         <v>282</v>
       </c>
       <c r="C100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -7669,10 +7669,10 @@
         <v>282</v>
       </c>
       <c r="G100" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="H100" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="I100" t="s">
         <v>414</v>
@@ -7681,7 +7681,7 @@
         <v>343</v>
       </c>
       <c r="K100" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="L100" t="s">
         <v>472</v>
@@ -7696,10 +7696,10 @@
         <v>282</v>
       </c>
       <c r="P100" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q100" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="R100" t="s">
         <v>475</v>
@@ -7905,16 +7905,16 @@
         <v>283</v>
       </c>
       <c r="G104" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="H104" t="s">
-        <v>237</v>
+        <v>332</v>
       </c>
       <c r="I104" t="s">
         <v>415</v>
       </c>
       <c r="J104" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K104" t="s">
         <v>415</v>
@@ -7923,13 +7923,13 @@
         <v>476</v>
       </c>
       <c r="M104" t="s">
-        <v>237</v>
+        <v>332</v>
       </c>
       <c r="N104" t="s">
         <v>475</v>
       </c>
       <c r="O104" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="P104" t="s">
         <v>472</v>
@@ -7938,7 +7938,7 @@
         <v>283</v>
       </c>
       <c r="R104" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S104">
         <v>1.041509599091668</v>
@@ -7952,7 +7952,7 @@
         <v>284</v>
       </c>
       <c r="C105" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -7964,10 +7964,10 @@
         <v>284</v>
       </c>
       <c r="G105" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="H105" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="I105" t="s">
         <v>416</v>
@@ -7976,7 +7976,7 @@
         <v>341</v>
       </c>
       <c r="K105" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="L105" t="s">
         <v>472</v>
@@ -7988,7 +7988,7 @@
         <v>476</v>
       </c>
       <c r="O105" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="P105" t="s">
         <v>475</v>
@@ -7997,7 +7997,7 @@
         <v>284</v>
       </c>
       <c r="R105" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S105">
         <v>1.305747785414138</v>
@@ -8144,19 +8144,19 @@
         <v>221</v>
       </c>
       <c r="H108" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="I108" t="s">
         <v>417</v>
       </c>
       <c r="J108" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K108" t="s">
         <v>285</v>
       </c>
       <c r="L108" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M108" t="s">
         <v>221</v>
@@ -8171,7 +8171,7 @@
         <v>476</v>
       </c>
       <c r="Q108" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="R108" t="s">
         <v>475</v>
@@ -8188,37 +8188,37 @@
         <v>286</v>
       </c>
       <c r="C109" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="s">
         <v>286</v>
       </c>
       <c r="G109" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="H109" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="I109" t="s">
         <v>418</v>
       </c>
       <c r="J109" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K109" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="L109" t="s">
         <v>472</v>
       </c>
       <c r="M109" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="N109" t="s">
         <v>475</v>
@@ -8247,28 +8247,28 @@
         <v>287</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
         <v>287</v>
       </c>
       <c r="G110" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H110" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="I110" t="s">
         <v>419</v>
       </c>
       <c r="J110" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K110" t="s">
         <v>287</v>
@@ -8277,13 +8277,13 @@
         <v>474</v>
       </c>
       <c r="M110" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="N110" t="s">
         <v>472</v>
       </c>
       <c r="O110" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="P110" t="s">
         <v>475</v>
@@ -8424,7 +8424,7 @@
         <v>288</v>
       </c>
       <c r="C113" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -8436,16 +8436,16 @@
         <v>288</v>
       </c>
       <c r="G113" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="H113" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="I113" t="s">
         <v>420</v>
       </c>
       <c r="J113" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K113" t="s">
         <v>420</v>
@@ -8454,7 +8454,7 @@
         <v>476</v>
       </c>
       <c r="M113" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="N113" t="s">
         <v>472</v>
@@ -8463,10 +8463,10 @@
         <v>288</v>
       </c>
       <c r="P113" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q113" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="R113" t="s">
         <v>475</v>
@@ -8483,7 +8483,7 @@
         <v>289</v>
       </c>
       <c r="C114" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -8495,22 +8495,22 @@
         <v>289</v>
       </c>
       <c r="G114" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="H114" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="I114" t="s">
         <v>421</v>
       </c>
       <c r="J114" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K114" t="s">
         <v>289</v>
       </c>
       <c r="L114" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M114" t="s">
         <v>421</v>
@@ -8519,13 +8519,13 @@
         <v>476</v>
       </c>
       <c r="O114" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="P114" t="s">
         <v>475</v>
       </c>
       <c r="Q114" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="R114" t="s">
         <v>472</v>
@@ -8542,7 +8542,7 @@
         <v>290</v>
       </c>
       <c r="C115" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -8554,19 +8554,19 @@
         <v>290</v>
       </c>
       <c r="G115" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H115" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I115" t="s">
         <v>422</v>
       </c>
       <c r="J115" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K115" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L115" t="s">
         <v>472</v>
@@ -8575,10 +8575,10 @@
         <v>290</v>
       </c>
       <c r="N115" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O115" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P115" t="s">
         <v>475</v>
@@ -8601,7 +8601,7 @@
         <v>291</v>
       </c>
       <c r="C116" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -8613,10 +8613,10 @@
         <v>291</v>
       </c>
       <c r="G116" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H116" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="I116" t="s">
         <v>423</v>
@@ -8628,10 +8628,10 @@
         <v>291</v>
       </c>
       <c r="L116" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M116" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="N116" t="s">
         <v>472</v>
@@ -8643,7 +8643,7 @@
         <v>476</v>
       </c>
       <c r="Q116" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="R116" t="s">
         <v>475</v>
@@ -8660,7 +8660,7 @@
         <v>292</v>
       </c>
       <c r="C117" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -8672,10 +8672,10 @@
         <v>292</v>
       </c>
       <c r="G117" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="H117" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="I117" t="s">
         <v>424</v>
@@ -8687,16 +8687,16 @@
         <v>292</v>
       </c>
       <c r="L117" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M117" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="N117" t="s">
         <v>475</v>
       </c>
       <c r="O117" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="P117" t="s">
         <v>472</v>
@@ -8790,19 +8790,19 @@
         <v>293</v>
       </c>
       <c r="G119" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="H119" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="I119" t="s">
         <v>425</v>
       </c>
       <c r="J119" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K119" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="L119" t="s">
         <v>472</v>
@@ -8814,7 +8814,7 @@
         <v>476</v>
       </c>
       <c r="O119" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="P119" t="s">
         <v>475</v>
@@ -8823,7 +8823,7 @@
         <v>293</v>
       </c>
       <c r="R119" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S119">
         <v>1.075090702254151</v>
@@ -8896,7 +8896,7 @@
         <v>294</v>
       </c>
       <c r="C121" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -8908,25 +8908,25 @@
         <v>294</v>
       </c>
       <c r="G121" t="s">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="H121" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="I121" t="s">
         <v>426</v>
       </c>
       <c r="J121" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K121" t="s">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="L121" t="s">
         <v>472</v>
       </c>
       <c r="M121" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="N121" t="s">
         <v>475</v>
@@ -8941,7 +8941,7 @@
         <v>294</v>
       </c>
       <c r="R121" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S121">
         <v>1.193346705598008</v>
@@ -8955,7 +8955,7 @@
         <v>295</v>
       </c>
       <c r="C122" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -8967,16 +8967,16 @@
         <v>295</v>
       </c>
       <c r="G122" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="H122" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="I122" t="s">
         <v>427</v>
       </c>
       <c r="J122" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K122" t="s">
         <v>427</v>
@@ -8988,16 +8988,16 @@
         <v>295</v>
       </c>
       <c r="N122" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O122" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="P122" t="s">
         <v>475</v>
       </c>
       <c r="Q122" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="R122" t="s">
         <v>472</v>
@@ -9014,7 +9014,7 @@
         <v>296</v>
       </c>
       <c r="C123" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -9026,25 +9026,25 @@
         <v>296</v>
       </c>
       <c r="G123" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="H123" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="I123" t="s">
         <v>428</v>
       </c>
       <c r="J123" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K123" t="s">
         <v>296</v>
       </c>
       <c r="L123" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M123" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="N123" t="s">
         <v>475</v>
@@ -9056,7 +9056,7 @@
         <v>476</v>
       </c>
       <c r="Q123" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="R123" t="s">
         <v>472</v>
@@ -9073,28 +9073,28 @@
         <v>297</v>
       </c>
       <c r="C124" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="s">
         <v>297</v>
       </c>
       <c r="G124" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="H124" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="I124" t="s">
         <v>429</v>
       </c>
       <c r="J124" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K124" t="s">
         <v>429</v>
@@ -9103,7 +9103,7 @@
         <v>476</v>
       </c>
       <c r="M124" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="N124" t="s">
         <v>472</v>
@@ -9115,7 +9115,7 @@
         <v>473</v>
       </c>
       <c r="Q124" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="R124" t="s">
         <v>475</v>
@@ -9132,22 +9132,22 @@
         <v>298</v>
       </c>
       <c r="C125" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="s">
         <v>298</v>
       </c>
       <c r="G125" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="H125" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="I125" t="s">
         <v>430</v>
@@ -9168,13 +9168,13 @@
         <v>474</v>
       </c>
       <c r="O125" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="P125" t="s">
         <v>472</v>
       </c>
       <c r="Q125" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="R125" t="s">
         <v>475</v>
@@ -9250,37 +9250,37 @@
         <v>299</v>
       </c>
       <c r="C127" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="s">
         <v>299</v>
       </c>
       <c r="G127" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="H127" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="I127" t="s">
         <v>431</v>
       </c>
       <c r="J127" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K127" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="L127" t="s">
         <v>475</v>
       </c>
       <c r="M127" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="N127" t="s">
         <v>472</v>
@@ -9439,19 +9439,19 @@
         <v>300</v>
       </c>
       <c r="G130" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H130" t="s">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="I130" t="s">
         <v>432</v>
       </c>
       <c r="J130" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K130" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L130" t="s">
         <v>472</v>
@@ -9466,10 +9466,10 @@
         <v>300</v>
       </c>
       <c r="P130" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q130" t="s">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="R130" t="s">
         <v>475</v>
@@ -9610,16 +9610,16 @@
         <v>0</v>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="s">
         <v>301</v>
       </c>
       <c r="G133" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="H133" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="I133" t="s">
         <v>433</v>
@@ -9634,13 +9634,13 @@
         <v>473</v>
       </c>
       <c r="M133" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="N133" t="s">
         <v>475</v>
       </c>
       <c r="O133" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="P133" t="s">
         <v>472</v>
@@ -9663,31 +9663,31 @@
         <v>302</v>
       </c>
       <c r="C134" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="s">
         <v>302</v>
       </c>
       <c r="G134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H134" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I134" t="s">
         <v>434</v>
       </c>
       <c r="J134" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K134" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="L134" t="s">
         <v>475</v>
@@ -9705,7 +9705,7 @@
         <v>474</v>
       </c>
       <c r="Q134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R134" t="s">
         <v>472</v>
@@ -9722,7 +9722,7 @@
         <v>303</v>
       </c>
       <c r="C135" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>303</v>
       </c>
       <c r="G135" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H135" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="I135" t="s">
         <v>435</v>
@@ -9749,10 +9749,10 @@
         <v>303</v>
       </c>
       <c r="L135" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M135" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="N135" t="s">
         <v>475</v>
@@ -9764,7 +9764,7 @@
         <v>476</v>
       </c>
       <c r="Q135" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="R135" t="s">
         <v>472</v>
@@ -9781,7 +9781,7 @@
         <v>304</v>
       </c>
       <c r="C136" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -9793,25 +9793,25 @@
         <v>304</v>
       </c>
       <c r="G136" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="H136" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="I136" t="s">
         <v>436</v>
       </c>
       <c r="J136" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K136" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="L136" t="s">
         <v>472</v>
       </c>
       <c r="M136" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="N136" t="s">
         <v>475</v>
@@ -9826,7 +9826,7 @@
         <v>304</v>
       </c>
       <c r="R136" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S136">
         <v>1.178522362539071</v>
@@ -9958,7 +9958,7 @@
         <v>305</v>
       </c>
       <c r="C139" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -9970,25 +9970,25 @@
         <v>305</v>
       </c>
       <c r="G139" t="s">
-        <v>227</v>
+        <v>338</v>
       </c>
       <c r="H139" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="I139" t="s">
         <v>437</v>
       </c>
       <c r="J139" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K139" t="s">
-        <v>227</v>
+        <v>338</v>
       </c>
       <c r="L139" t="s">
         <v>472</v>
       </c>
       <c r="M139" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="N139" t="s">
         <v>475</v>
@@ -9997,7 +9997,7 @@
         <v>305</v>
       </c>
       <c r="P139" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q139" t="s">
         <v>437</v>
@@ -10135,7 +10135,7 @@
         <v>306</v>
       </c>
       <c r="C142" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -10147,19 +10147,19 @@
         <v>306</v>
       </c>
       <c r="G142" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="H142" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="I142" t="s">
         <v>438</v>
       </c>
       <c r="J142" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K142" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L142" t="s">
         <v>475</v>
@@ -10168,7 +10168,7 @@
         <v>306</v>
       </c>
       <c r="N142" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O142" t="s">
         <v>438</v>
@@ -10177,7 +10177,7 @@
         <v>476</v>
       </c>
       <c r="Q142" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="R142" t="s">
         <v>472</v>
@@ -10194,7 +10194,7 @@
         <v>307</v>
       </c>
       <c r="C143" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>307</v>
       </c>
       <c r="G143" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="H143" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="I143" t="s">
         <v>439</v>
@@ -10218,7 +10218,7 @@
         <v>342</v>
       </c>
       <c r="K143" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="L143" t="s">
         <v>475</v>
@@ -10227,7 +10227,7 @@
         <v>307</v>
       </c>
       <c r="N143" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O143" t="s">
         <v>439</v>
@@ -10236,7 +10236,7 @@
         <v>476</v>
       </c>
       <c r="Q143" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="R143" t="s">
         <v>472</v>
@@ -10312,22 +10312,22 @@
         <v>308</v>
       </c>
       <c r="C145" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="s">
         <v>308</v>
       </c>
       <c r="G145" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="H145" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I145" t="s">
         <v>440</v>
@@ -10342,13 +10342,13 @@
         <v>476</v>
       </c>
       <c r="M145" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N145" t="s">
         <v>475</v>
       </c>
       <c r="O145" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="P145" t="s">
         <v>472</v>
@@ -10371,7 +10371,7 @@
         <v>309</v>
       </c>
       <c r="C146" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
@@ -10383,19 +10383,19 @@
         <v>309</v>
       </c>
       <c r="G146" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="H146" t="s">
-        <v>259</v>
+        <v>324</v>
       </c>
       <c r="I146" t="s">
         <v>441</v>
       </c>
       <c r="J146" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K146" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L146" t="s">
         <v>472</v>
@@ -10404,7 +10404,7 @@
         <v>309</v>
       </c>
       <c r="N146" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O146" t="s">
         <v>441</v>
@@ -10413,7 +10413,7 @@
         <v>476</v>
       </c>
       <c r="Q146" t="s">
-        <v>259</v>
+        <v>324</v>
       </c>
       <c r="R146" t="s">
         <v>475</v>
@@ -10560,22 +10560,22 @@
         <v>310</v>
       </c>
       <c r="G149" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="H149" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="I149" t="s">
         <v>442</v>
       </c>
       <c r="J149" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K149" t="s">
         <v>310</v>
       </c>
       <c r="L149" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M149" t="s">
         <v>442</v>
@@ -10584,13 +10584,13 @@
         <v>476</v>
       </c>
       <c r="O149" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="P149" t="s">
         <v>472</v>
       </c>
       <c r="Q149" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="R149" t="s">
         <v>475</v>
@@ -10666,7 +10666,7 @@
         <v>311</v>
       </c>
       <c r="C151" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>311</v>
       </c>
       <c r="G151" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="H151" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="I151" t="s">
         <v>443</v>
       </c>
       <c r="J151" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K151" t="s">
         <v>443</v>
@@ -10696,7 +10696,7 @@
         <v>476</v>
       </c>
       <c r="M151" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="N151" t="s">
         <v>472</v>
@@ -10705,10 +10705,10 @@
         <v>311</v>
       </c>
       <c r="P151" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q151" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="R151" t="s">
         <v>475</v>
@@ -10725,28 +10725,28 @@
         <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="s">
         <v>312</v>
       </c>
       <c r="G152" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="H152" t="s">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="I152" t="s">
         <v>444</v>
       </c>
       <c r="J152" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K152" t="s">
         <v>444</v>
@@ -10755,7 +10755,7 @@
         <v>476</v>
       </c>
       <c r="M152" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="N152" t="s">
         <v>472</v>
@@ -10767,7 +10767,7 @@
         <v>474</v>
       </c>
       <c r="Q152" t="s">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="R152" t="s">
         <v>475</v>
@@ -10784,28 +10784,28 @@
         <v>313</v>
       </c>
       <c r="C153" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="s">
         <v>313</v>
       </c>
       <c r="G153" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="H153" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="I153" t="s">
         <v>445</v>
       </c>
       <c r="J153" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K153" t="s">
         <v>445</v>
@@ -10814,13 +10814,13 @@
         <v>476</v>
       </c>
       <c r="M153" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="N153" t="s">
         <v>475</v>
       </c>
       <c r="O153" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="P153" t="s">
         <v>472</v>
@@ -10855,19 +10855,19 @@
         <v>314</v>
       </c>
       <c r="G154" t="s">
+        <v>237</v>
+      </c>
+      <c r="H154" t="s">
         <v>292</v>
-      </c>
-      <c r="H154" t="s">
-        <v>242</v>
       </c>
       <c r="I154" t="s">
         <v>446</v>
       </c>
       <c r="J154" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K154" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="L154" t="s">
         <v>472</v>
@@ -10876,10 +10876,10 @@
         <v>314</v>
       </c>
       <c r="N154" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O154" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="P154" t="s">
         <v>475</v>
@@ -10961,7 +10961,7 @@
         <v>315</v>
       </c>
       <c r="C156" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
@@ -10973,31 +10973,31 @@
         <v>315</v>
       </c>
       <c r="G156" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="H156" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="I156" t="s">
         <v>447</v>
       </c>
       <c r="J156" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K156" t="s">
         <v>315</v>
       </c>
       <c r="L156" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M156" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="N156" t="s">
         <v>475</v>
       </c>
       <c r="O156" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="P156" t="s">
         <v>472</v>
@@ -11079,7 +11079,7 @@
         <v>316</v>
       </c>
       <c r="C158" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
@@ -11091,19 +11091,19 @@
         <v>316</v>
       </c>
       <c r="G158" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="H158" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="I158" t="s">
         <v>448</v>
       </c>
       <c r="J158" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K158" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="L158" t="s">
         <v>475</v>
@@ -11112,10 +11112,10 @@
         <v>316</v>
       </c>
       <c r="N158" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O158" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="P158" t="s">
         <v>472</v>
@@ -11138,31 +11138,31 @@
         <v>317</v>
       </c>
       <c r="C159" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="s">
         <v>317</v>
       </c>
       <c r="G159" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="H159" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="I159" t="s">
         <v>449</v>
       </c>
       <c r="J159" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K159" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="L159" t="s">
         <v>475</v>
@@ -11174,7 +11174,7 @@
         <v>476</v>
       </c>
       <c r="O159" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="P159" t="s">
         <v>472</v>
@@ -11203,25 +11203,25 @@
         <v>0</v>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="s">
         <v>318</v>
       </c>
       <c r="G160" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="H160" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="I160" t="s">
         <v>450</v>
       </c>
       <c r="J160" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K160" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="L160" t="s">
         <v>472</v>
@@ -11233,7 +11233,7 @@
         <v>474</v>
       </c>
       <c r="O160" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="P160" t="s">
         <v>475</v>
@@ -11374,7 +11374,7 @@
         <v>319</v>
       </c>
       <c r="C163" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
@@ -11386,16 +11386,16 @@
         <v>319</v>
       </c>
       <c r="G163" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="H163" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="I163" t="s">
         <v>451</v>
       </c>
       <c r="J163" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K163" t="s">
         <v>451</v>
@@ -11404,13 +11404,13 @@
         <v>476</v>
       </c>
       <c r="M163" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="N163" t="s">
         <v>472</v>
       </c>
       <c r="O163" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="P163" t="s">
         <v>475</v>
@@ -11419,7 +11419,7 @@
         <v>319</v>
       </c>
       <c r="R163" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S163">
         <v>1.091278870218734</v>
@@ -11551,28 +11551,28 @@
         <v>320</v>
       </c>
       <c r="C166" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
       </c>
       <c r="E166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="s">
         <v>320</v>
       </c>
       <c r="G166" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="H166" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="I166" t="s">
         <v>452</v>
       </c>
       <c r="J166" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K166" t="s">
         <v>452</v>
@@ -11587,13 +11587,13 @@
         <v>473</v>
       </c>
       <c r="O166" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="P166" t="s">
         <v>475</v>
       </c>
       <c r="Q166" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="R166" t="s">
         <v>472</v>
@@ -11681,19 +11681,19 @@
         <v>321</v>
       </c>
       <c r="G168" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="H168" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="I168" t="s">
         <v>453</v>
       </c>
       <c r="J168" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K168" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="L168" t="s">
         <v>472</v>
@@ -11705,7 +11705,7 @@
         <v>476</v>
       </c>
       <c r="O168" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="P168" t="s">
         <v>475</v>
@@ -11714,7 +11714,7 @@
         <v>321</v>
       </c>
       <c r="R168" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S168">
         <v>1.112253543784417</v>
@@ -11728,7 +11728,7 @@
         <v>322</v>
       </c>
       <c r="C169" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -11740,19 +11740,19 @@
         <v>322</v>
       </c>
       <c r="G169" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H169" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="I169" t="s">
         <v>454</v>
       </c>
       <c r="J169" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K169" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="L169" t="s">
         <v>475</v>
@@ -11764,7 +11764,7 @@
         <v>476</v>
       </c>
       <c r="O169" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P169" t="s">
         <v>472</v>
@@ -11773,7 +11773,7 @@
         <v>322</v>
       </c>
       <c r="R169" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S169">
         <v>1.07353082449837</v>
@@ -11799,19 +11799,19 @@
         <v>323</v>
       </c>
       <c r="G170" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="H170" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="I170" t="s">
         <v>455</v>
       </c>
       <c r="J170" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K170" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="L170" t="s">
         <v>475</v>
@@ -11820,10 +11820,10 @@
         <v>323</v>
       </c>
       <c r="N170" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O170" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="P170" t="s">
         <v>472</v>
@@ -11905,7 +11905,7 @@
         <v>324</v>
       </c>
       <c r="C172" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
@@ -11917,25 +11917,25 @@
         <v>324</v>
       </c>
       <c r="G172" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="H172" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="I172" t="s">
         <v>456</v>
       </c>
       <c r="J172" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K172" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="L172" t="s">
         <v>475</v>
       </c>
       <c r="M172" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="N172" t="s">
         <v>472</v>
@@ -11950,7 +11950,7 @@
         <v>324</v>
       </c>
       <c r="R172" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S172">
         <v>1.156868174612215</v>
@@ -11964,7 +11964,7 @@
         <v>325</v>
       </c>
       <c r="C173" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
@@ -11976,16 +11976,16 @@
         <v>325</v>
       </c>
       <c r="G173" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H173" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I173" t="s">
         <v>457</v>
       </c>
       <c r="J173" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K173" t="s">
         <v>457</v>
@@ -11994,7 +11994,7 @@
         <v>476</v>
       </c>
       <c r="M173" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N173" t="s">
         <v>475</v>
@@ -12003,10 +12003,10 @@
         <v>325</v>
       </c>
       <c r="P173" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q173" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="R173" t="s">
         <v>472</v>
@@ -12023,22 +12023,22 @@
         <v>326</v>
       </c>
       <c r="C174" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="s">
         <v>326</v>
       </c>
       <c r="G174" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="H174" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="I174" t="s">
         <v>458</v>
@@ -12047,7 +12047,7 @@
         <v>343</v>
       </c>
       <c r="K174" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="L174" t="s">
         <v>475</v>
@@ -12065,7 +12065,7 @@
         <v>473</v>
       </c>
       <c r="Q174" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="R174" t="s">
         <v>472</v>
@@ -12082,7 +12082,7 @@
         <v>327</v>
       </c>
       <c r="C175" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
@@ -12094,25 +12094,25 @@
         <v>327</v>
       </c>
       <c r="G175" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H175" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="I175" t="s">
         <v>459</v>
       </c>
       <c r="J175" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K175" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L175" t="s">
         <v>472</v>
       </c>
       <c r="M175" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="N175" t="s">
         <v>475</v>
@@ -12127,7 +12127,7 @@
         <v>327</v>
       </c>
       <c r="R175" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S175">
         <v>1.086968992842064</v>
@@ -12318,31 +12318,31 @@
         <v>328</v>
       </c>
       <c r="C179" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D179" t="b">
         <v>0</v>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="s">
         <v>328</v>
       </c>
       <c r="G179" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="H179" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I179" t="s">
         <v>460</v>
       </c>
       <c r="J179" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K179" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="L179" t="s">
         <v>472</v>
@@ -12354,7 +12354,7 @@
         <v>476</v>
       </c>
       <c r="O179" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P179" t="s">
         <v>475</v>
@@ -12442,22 +12442,22 @@
         <v>0</v>
       </c>
       <c r="E181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="s">
         <v>329</v>
       </c>
       <c r="G181" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H181" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="I181" t="s">
         <v>461</v>
       </c>
       <c r="J181" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K181" t="s">
         <v>461</v>
@@ -12472,13 +12472,13 @@
         <v>473</v>
       </c>
       <c r="O181" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="P181" t="s">
         <v>472</v>
       </c>
       <c r="Q181" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="R181" t="s">
         <v>475</v>
@@ -12495,7 +12495,7 @@
         <v>330</v>
       </c>
       <c r="C182" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
@@ -12507,31 +12507,31 @@
         <v>330</v>
       </c>
       <c r="G182" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="H182" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="I182" t="s">
         <v>462</v>
       </c>
       <c r="J182" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K182" t="s">
         <v>330</v>
       </c>
       <c r="L182" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M182" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="N182" t="s">
         <v>472</v>
       </c>
       <c r="O182" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="P182" t="s">
         <v>475</v>
@@ -12560,16 +12560,16 @@
         <v>0</v>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="s">
         <v>331</v>
       </c>
       <c r="G183" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H183" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="I183" t="s">
         <v>463</v>
@@ -12578,7 +12578,7 @@
         <v>340</v>
       </c>
       <c r="K183" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L183" t="s">
         <v>472</v>
@@ -12596,7 +12596,7 @@
         <v>476</v>
       </c>
       <c r="Q183" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="R183" t="s">
         <v>475</v>
@@ -12613,22 +12613,22 @@
         <v>332</v>
       </c>
       <c r="C184" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="s">
         <v>332</v>
       </c>
       <c r="G184" t="s">
-        <v>336</v>
+        <v>230</v>
       </c>
       <c r="H184" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="I184" t="s">
         <v>464</v>
@@ -12643,13 +12643,13 @@
         <v>474</v>
       </c>
       <c r="M184" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="N184" t="s">
         <v>475</v>
       </c>
       <c r="O184" t="s">
-        <v>336</v>
+        <v>230</v>
       </c>
       <c r="P184" t="s">
         <v>472</v>
@@ -12672,7 +12672,7 @@
         <v>333</v>
       </c>
       <c r="C185" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D185" t="b">
         <v>0</v>
@@ -12684,19 +12684,19 @@
         <v>333</v>
       </c>
       <c r="G185" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="H185" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="I185" t="s">
         <v>465</v>
       </c>
       <c r="J185" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K185" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L185" t="s">
         <v>472</v>
@@ -12705,10 +12705,10 @@
         <v>333</v>
       </c>
       <c r="N185" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O185" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="P185" t="s">
         <v>475</v>
@@ -12790,7 +12790,7 @@
         <v>334</v>
       </c>
       <c r="C187" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
@@ -12802,22 +12802,22 @@
         <v>334</v>
       </c>
       <c r="G187" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H187" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="I187" t="s">
         <v>466</v>
       </c>
       <c r="J187" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K187" t="s">
         <v>334</v>
       </c>
       <c r="L187" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M187" t="s">
         <v>466</v>
@@ -12826,13 +12826,13 @@
         <v>476</v>
       </c>
       <c r="O187" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="P187" t="s">
         <v>472</v>
       </c>
       <c r="Q187" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="R187" t="s">
         <v>475</v>
@@ -12849,7 +12849,7 @@
         <v>335</v>
       </c>
       <c r="C188" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -12861,19 +12861,19 @@
         <v>335</v>
       </c>
       <c r="G188" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="H188" t="s">
-        <v>224</v>
+        <v>338</v>
       </c>
       <c r="I188" t="s">
         <v>467</v>
       </c>
       <c r="J188" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K188" t="s">
-        <v>224</v>
+        <v>338</v>
       </c>
       <c r="L188" t="s">
         <v>475</v>
@@ -12888,10 +12888,10 @@
         <v>335</v>
       </c>
       <c r="P188" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q188" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="R188" t="s">
         <v>472</v>
@@ -12967,7 +12967,7 @@
         <v>336</v>
       </c>
       <c r="C190" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
@@ -12979,19 +12979,19 @@
         <v>336</v>
       </c>
       <c r="G190" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="H190" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="I190" t="s">
         <v>468</v>
       </c>
       <c r="J190" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K190" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="L190" t="s">
         <v>472</v>
@@ -13003,7 +13003,7 @@
         <v>476</v>
       </c>
       <c r="O190" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="P190" t="s">
         <v>475</v>
@@ -13012,7 +13012,7 @@
         <v>336</v>
       </c>
       <c r="R190" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S190">
         <v>1.080403273049659</v>
@@ -13038,10 +13038,10 @@
         <v>337</v>
       </c>
       <c r="G191" t="s">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="H191" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I191" t="s">
         <v>469</v>
@@ -13050,7 +13050,7 @@
         <v>343</v>
       </c>
       <c r="K191" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L191" t="s">
         <v>475</v>
@@ -13062,7 +13062,7 @@
         <v>476</v>
       </c>
       <c r="O191" t="s">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="P191" t="s">
         <v>472</v>
@@ -13071,7 +13071,7 @@
         <v>337</v>
       </c>
       <c r="R191" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S191">
         <v>1.149539787934572</v>
@@ -13091,16 +13091,16 @@
         <v>0</v>
       </c>
       <c r="E192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" t="s">
         <v>338</v>
       </c>
       <c r="G192" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H192" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="I192" t="s">
         <v>470</v>
@@ -13115,13 +13115,13 @@
         <v>473</v>
       </c>
       <c r="M192" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="N192" t="s">
         <v>475</v>
       </c>
       <c r="O192" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P192" t="s">
         <v>472</v>
@@ -13144,28 +13144,28 @@
         <v>339</v>
       </c>
       <c r="C193" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
       </c>
       <c r="E193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="s">
         <v>339</v>
       </c>
       <c r="G193" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="H193" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="I193" t="s">
         <v>471</v>
       </c>
       <c r="J193" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K193" t="s">
         <v>471</v>
@@ -13174,7 +13174,7 @@
         <v>476</v>
       </c>
       <c r="M193" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="N193" t="s">
         <v>475</v>
@@ -13186,7 +13186,7 @@
         <v>473</v>
       </c>
       <c r="Q193" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="R193" t="s">
         <v>472</v>
